--- a/docs/Original File Explanation.xlsx
+++ b/docs/Original File Explanation.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD6F2D-2975-48DA-AFF8-D45C5A5B04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40874C96-9CF2-4FC2-ADFB-52830832813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-7830" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
+    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
   </bookViews>
   <sheets>
     <sheet name="High Level" sheetId="2" r:id="rId1"/>
     <sheet name="Specific Files" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Specific Files'!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Specific Files'!$B$1:$D$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>Type</t>
   </si>
@@ -249,10 +249,42 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Macro.</t>
-  </si>
-  <si>
     <t>User inputs to the Alteryx workflows.</t>
+  </si>
+  <si>
+    <t>Main goal is to remake this. This macro consists of 10 other scripts, which should all be remade as well.</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <r>
+      <t>these are yxm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -276,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -313,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,9 +740,10 @@
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
     <col min="3" max="3" width="73.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
@@ -716,8 +756,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -725,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -733,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -744,18 +787,21 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -763,15 +809,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -779,15 +831,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -795,15 +853,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -811,23 +875,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -835,7 +905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -843,15 +913,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>57</v>
       </c>
@@ -859,23 +932,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>57</v>
       </c>
@@ -883,15 +962,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>57</v>
       </c>
@@ -899,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -907,7 +989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>57</v>
       </c>
@@ -915,7 +997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>57</v>
       </c>
@@ -923,7 +1005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>57</v>
       </c>
@@ -931,7 +1013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>58</v>
       </c>
@@ -939,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -947,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -955,7 +1037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>58</v>
       </c>
@@ -963,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -1118,7 +1200,7 @@
         <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1146,7 +1228,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D1" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
+  <autoFilter ref="B1:D53" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D53">
       <sortCondition ref="B1"/>
     </sortState>

--- a/docs/Original File Explanation.xlsx
+++ b/docs/Original File Explanation.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40874C96-9CF2-4FC2-ADFB-52830832813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C143F54-ACFE-4453-9ABD-59B4DC4AB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
+    <workbookView xWindow="57480" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
   </bookViews>
   <sheets>
     <sheet name="High Level" sheetId="2" r:id="rId1"/>
     <sheet name="Specific Files" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="010-Depot Costs..." sheetId="3" r:id="rId4"/>
+    <sheet name="015 - Set SOIP Solve Flag" sheetId="4" r:id="rId5"/>
+    <sheet name="017 - Issue and Return..." sheetId="6" r:id="rId6"/>
+    <sheet name="020 - Lane Attributes" sheetId="7" r:id="rId7"/>
+    <sheet name="030 - NPD Percentage Penalty" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Specific Files'!$B$1:$D$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Specific Files'!$B$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="419">
   <si>
     <t>Type</t>
   </si>
@@ -111,27 +117,18 @@
     <t xml:space="preserve"> 'SOIP Model Update Process - 015 - Set SOIP Solve Flag.yxmc',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'SOIP Model Update Process - 015 - Set SOIP Solve Flag.yxmd',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'SOIP Model Update Process - 017 - Issue and Return Location Details.bak',</t>
   </si>
   <si>
     <t xml:space="preserve"> 'SOIP Model Update Process - 017 - Issue and Return Location Details.yxmc',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'SOIP Model Update Process - 017 - Issue and Return Location Details.yxmd',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'SOIP Model Update Process - 020 - Lane Attributes.bak',</t>
   </si>
   <si>
     <t xml:space="preserve"> 'SOIP Model Update Process - 020 - Lane Attributes.yxmc',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'SOIP Model Update Process - 020 - Lane Attributes.yxmd',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'SOIP Model Update Process - 025 - Closest Depot.bak',</t>
   </si>
   <si>
@@ -262,7 +259,7 @@
   </si>
   <si>
     <r>
-      <t>these are yxm</t>
+      <t xml:space="preserve">This is a </t>
     </r>
     <r>
       <rPr>
@@ -273,7 +270,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d</t>
+      <t>yxwz</t>
     </r>
     <r>
       <rPr>
@@ -283,8 +280,1244 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> files</t>
+      <t xml:space="preserve"> file.
+1. Read in the "Parameters" tab from the  "SOIP Workflow Parameter Inputs.xlsx" file.
+2. Select the desired columns from that dataset.
+3. Run each of the following downstream workflows.</t>
     </r>
+  </si>
+  <si>
+    <t>Include?</t>
+  </si>
+  <si>
+    <t>Qs for Marc</t>
+  </si>
+  <si>
+    <t>Depot Assumpitions File</t>
+  </si>
+  <si>
+    <t>Update Input Data Tool</t>
+  </si>
+  <si>
+    <t>SOIP Optimization Assumptions.xlsx, Depot Assumptions tab</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Warehousing Policies</t>
+  </si>
+  <si>
+    <t>Production Policies</t>
+  </si>
+  <si>
+    <t>Customer Fulfillment Policies</t>
+  </si>
+  <si>
+    <t>Production Constraints</t>
+  </si>
+  <si>
+    <t>Inventory Constraints</t>
+  </si>
+  <si>
+    <t>Inventory Policies</t>
+  </si>
+  <si>
+    <t>Replenishment Policies</t>
+  </si>
+  <si>
+    <t>Execute the following SQL</t>
+  </si>
+  <si>
+    <t>select facilities.* from facilities</t>
+  </si>
+  <si>
+    <t>Set facility fixed costs to 0</t>
+  </si>
+  <si>
+    <t>fixedstartupcost = 0</t>
+  </si>
+  <si>
+    <t>fixedclosingcost = 0</t>
+  </si>
+  <si>
+    <t>fixedoperatingcost = 0</t>
+  </si>
+  <si>
+    <t>Set the following columns</t>
+  </si>
+  <si>
+    <t>heat_treatment_rqmt = "N"</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Alteryx Tool/Container Name</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Looks like this is overwriting the previous cell.</t>
+  </si>
+  <si>
+    <t>depottype = [depottype]</t>
+  </si>
+  <si>
+    <t>Is this doing anything?</t>
+  </si>
+  <si>
+    <t>closed = [Closed2]</t>
+  </si>
+  <si>
+    <t>status = IIF(left([facilityname],1)="F", IIF([closed]="NO", "Include", "Exclude"), [status])</t>
+  </si>
+  <si>
+    <t>Sort the data by the facilityname column, ascending</t>
+  </si>
+  <si>
+    <t>Sub Step</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>select warehousingpolicies.* from warehousingpolicies</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Set inbound and outbound handling costs to 0</t>
+  </si>
+  <si>
+    <t>inboundhandlingcost = 0</t>
+  </si>
+  <si>
+    <t>outboundhandlingcost = 0</t>
+  </si>
+  <si>
+    <t>Find/Replace Tool</t>
+  </si>
+  <si>
+    <t>Find Within Field : facilityname</t>
+  </si>
+  <si>
+    <t>Find Value : ModelID</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Handling In Upd, Handling Out Upd, Sort Upd</t>
+  </si>
+  <si>
+    <t>Set inbound (out + sort) and outbound handling costs</t>
+  </si>
+  <si>
+    <t>inboundhandlingcost = IIF(isnull([Handling In Upd]), 0, [Handling In Upd])+IIF(isnull([Sort Upd]), 0, [Sort Upd])</t>
+  </si>
+  <si>
+    <t>outboundhandlingcost = IIF(isnull([Handling Out Upd]), 0, [Handling Out Upd])</t>
+  </si>
+  <si>
+    <t>Remove update fields</t>
+  </si>
+  <si>
+    <t>Select all columns except : productionnamegroupbehavior, Handling In Upd, Handling Out Upd, Sort Upd</t>
+  </si>
+  <si>
+    <t>Select all columns except : Type, Closed2, Heat Treat, Fixed Upd</t>
+  </si>
+  <si>
+    <t>This is being overwritten below.</t>
+  </si>
+  <si>
+    <t>select productionpolicies.* from productionpolicies</t>
+  </si>
+  <si>
+    <t>Split into two datasets</t>
+  </si>
+  <si>
+    <t>bomname &lt;&gt; "BOM_RFU_REPAIR"</t>
+  </si>
+  <si>
+    <t>bomname == "BOM_RFU_REPAIR"</t>
+  </si>
+  <si>
+    <t>unitcost = 0</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Type, Closed, Heat Treat, Fixed Upd</t>
+  </si>
+  <si>
+    <t>fixedoperatingcost = IIF(isnull([Fixed Upd]), 0, [Fixed Upd])</t>
+  </si>
+  <si>
+    <t>Update fixed costs</t>
+  </si>
+  <si>
+    <t>Set repair costs to 0 (on the dataset where bomname == "BOM_RFU_REPAIR")</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Type, Repair UPD</t>
+  </si>
+  <si>
+    <t>unitcost = IIF(isnull([Repair Upd]), 0, [Repair Upd])</t>
+  </si>
+  <si>
+    <t>Set depot type</t>
+  </si>
+  <si>
+    <t>depottype = IIF(left([facilityname],1)="D", [Type], [depottype])</t>
+  </si>
+  <si>
+    <t>Remove Update fields</t>
+  </si>
+  <si>
+    <t>Select all columns except : simulationpolicy, lotsize, lotsizeuom, Type, Repair Upd</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Find/Replace Tool (on the dataset where bomname == "BOM_RFU_REPAIR")</t>
+  </si>
+  <si>
+    <t>Update repair costs (on the dataset where bomname == "BOM_RFU_REPAIR")</t>
+  </si>
+  <si>
+    <t>Set depot type (on the dataset where bomname == "BOM_RFU_REPAIR")</t>
+  </si>
+  <si>
+    <t>Remove update fields (on the dataset where bomname == "BOM_RFU_REPAIR")</t>
+  </si>
+  <si>
+    <t>Union bomname == "BOM_RFU_REPAIR" and bomname &lt;&gt; "BOM_RFU_REPAIR"</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was done once above. </t>
+  </si>
+  <si>
+    <t>select customerfulfillmentpolicies.* from customerfulfillmentpolicies</t>
+  </si>
+  <si>
+    <t>Set painting costs to 0</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Type, Paint Upd</t>
+  </si>
+  <si>
+    <t>Update painting costs</t>
+  </si>
+  <si>
+    <t>unitcost = IIF(isnull([Paint Upd]), 0, [Paint Upd])</t>
+  </si>
+  <si>
+    <t>depottype = [Type]</t>
+  </si>
+  <si>
+    <t>Select all columns except : Type, Paint Upd</t>
+  </si>
+  <si>
+    <t>select productionconstraints.* from productionconstraints</t>
+  </si>
+  <si>
+    <t>select periods.* from periods</t>
+  </si>
+  <si>
+    <t>[notes] = [User.RepairCapacityNotes] (Filter tool on ProductionConstraints dataset)</t>
+  </si>
+  <si>
+    <t>Find Value : periodname (in dataset a)</t>
+  </si>
+  <si>
+    <t>Find Within Field : periodname (in dataset c)</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : workingdays</t>
+  </si>
+  <si>
+    <t>Find/Replace Tool (Between a and c)</t>
+  </si>
+  <si>
+    <t>Find/Replace Tool (Between d and Depot Assumptions)</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Repair / Day</t>
+  </si>
+  <si>
+    <t>formula tool</t>
+  </si>
+  <si>
+    <t>constraintvalue = 0</t>
+  </si>
+  <si>
+    <t>constraintvalue = IIF(isnull([Repair / Day]), 0, ToNumber([workingdays])*ToNumber([Repair / Day]))</t>
+  </si>
+  <si>
+    <t>Select all columns except : workingdays, Repair / Day</t>
+  </si>
+  <si>
+    <t>Union g and dataset where c = false ([notes] &lt;&gt; [User.RepairCapacityNotes])</t>
+  </si>
+  <si>
+    <t>select inventoryconstraints.* from inventoryconstraints</t>
+  </si>
+  <si>
+    <t>Minimum Capacity Requirements (Filter)</t>
+  </si>
+  <si>
+    <t>[notes] = [User.MinInventoryNotes]</t>
+  </si>
+  <si>
+    <t>Maximum Capacity Requirements (Filter, Input is b.False)</t>
+  </si>
+  <si>
+    <t>[User.DepotCapacityNotes] = [User.DepotCapacityNotes]</t>
+  </si>
+  <si>
+    <t>Set minimum inventory levels (formula tool)</t>
+  </si>
+  <si>
+    <t>constraintvalue = IIF(isnull([Minimum Inv]), 0, [Minimum Inv])</t>
+  </si>
+  <si>
+    <t>Find/Replace Tool (between b.True and Depot Assignments)</t>
+  </si>
+  <si>
+    <t>Find/Replace Tool (between c.True and Depot Assignments)</t>
+  </si>
+  <si>
+    <t>Set maximum capacity (main storage, yard and temp) (formula tool)</t>
+  </si>
+  <si>
+    <t>constraintvalue = IIF(isnull([Storage]), 0, [Storage])+IIF(isnull([Yard Space]), 0, [Yard Space])+IIF(isnull([Temp Storage]), 0, [Temp Storage])</t>
+  </si>
+  <si>
+    <t>Union (three datasets)</t>
+  </si>
+  <si>
+    <t>Union : e + g + c.False</t>
+  </si>
+  <si>
+    <t>Find Within Field : periodname (in dataset b.True)</t>
+  </si>
+  <si>
+    <t>Find Within Field : periodname (in dataset c.True)</t>
+  </si>
+  <si>
+    <t>Select tool</t>
+  </si>
+  <si>
+    <t>Select all columns except : Minimum Inv, Storage, Yard Space, Temp Storage</t>
+  </si>
+  <si>
+    <t>Find Within Field : facilityname (in i)</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Select all columns except : Type</t>
+  </si>
+  <si>
+    <t>select inventorypolicies.* from inventorypolicies</t>
+  </si>
+  <si>
+    <t>Beginning inventory (Filter)</t>
+  </si>
+  <si>
+    <t>[notes] = [User.BeginningInvNotes]</t>
+  </si>
+  <si>
+    <t>BegInv_RFU = IIF([BegInv_RFU]&lt;0, 0, [BegInv_RFU])</t>
+  </si>
+  <si>
+    <t>BegInv_WIP = IIF([BegInv_WIP]&lt;0, 0, [BegInv_WIP])</t>
+  </si>
+  <si>
+    <t>BegInv_MIX = IIF([BegInv_MIX]&lt;0, 0, [BegInv_MIX])</t>
+  </si>
+  <si>
+    <t>Find Within Field : facilityname (in b.True)</t>
+  </si>
+  <si>
+    <t>Set negative inventories to 0 (on the Depot Assumptions dataset)</t>
+  </si>
+  <si>
+    <t>Find Value : ModelID (in c)</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Minimum Inv</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : Storage, Yard Space, Temp Storage</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : DmgRate, BegInv_RFU, BegInv_WIP, BegInv_MIX</t>
+  </si>
+  <si>
+    <t>Set initial inventory</t>
+  </si>
+  <si>
+    <t>initialinventory = 0</t>
+  </si>
+  <si>
+    <t>initialinventory = IIF([productname]="RFU", IIF(isnull([BegInv_RFU]), 0, [BegInv_RFU]), IIF(isnull([BegInv_WIP]), 0, [BegInv_WIP]))+
+IIF([productname]="RFU", IIF(isnull([BegInv_MIX]), 0, [BegInv_MIX]*(1-[DmgRate])), IIF(isnull([BegInv_MIX]), 0, [BegInv_MIX]*[DmgRate]))</t>
+  </si>
+  <si>
+    <t>e + b.False</t>
+  </si>
+  <si>
+    <t>Select all columns except : reviewperiod, reviewperioduom, surpluslevel, surplusleveluom, surplusreviewperiodfirsttime, surplusreviewperiod, surplusreviewperioduom, dosuserdefinedforecastname, timebetweeninventoryturns, timebetweeninventoryturnsuom, DmgRate, BegInv_RFU, BegInv_WIP, BegInv_MIX</t>
+  </si>
+  <si>
+    <t>select replenishmentpolicies.* from replenishmentpolicies</t>
+  </si>
+  <si>
+    <t>Find Within Field : facilityname (in a)</t>
+  </si>
+  <si>
+    <t>Find Value : ModelID (in Depot Assumptions)</t>
+  </si>
+  <si>
+    <t>Find Value : periodname (in Depot Assumptions)</t>
+  </si>
+  <si>
+    <t>Find Within Field : sourcename (in b output)</t>
+  </si>
+  <si>
+    <t>Origin and destination depot types</t>
+  </si>
+  <si>
+    <t>odepottype = IIF(left([sourcename],1) = "D", [Type2], [odepottype])</t>
+  </si>
+  <si>
+    <t>ddepottype = IIF(left([facilityname],1) = "D", [Type], [ddepottype])</t>
+  </si>
+  <si>
+    <t>Select all columns except : Type, Type2</t>
+  </si>
+  <si>
+    <t>heat_treatment_rqmt = IIF(IsNull([Heat Treat]), "N", [Heat Treat])</t>
+  </si>
+  <si>
+    <t>This tool downloads tables from an Opt model, updates records based on data in the "SOIP Optimization Assumptions.xlsx, Depot Assumptions tab" file, then uploads the data to a new model (with delete and append).</t>
+  </si>
+  <si>
+    <t>Return Forecast Notes</t>
+  </si>
+  <si>
+    <t>Update Value</t>
+  </si>
+  <si>
+    <t>Expression - value="[notes] = "Returns_SeptemberSOIP""</t>
+  </si>
+  <si>
+    <t>September? The original files were for May 2023</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Customer table in model - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>select customers.* from customers</t>
+  </si>
+  <si>
+    <t>Customer demand - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>select customerdemand.* from customerdemand</t>
+  </si>
+  <si>
+    <t>select all columns from b</t>
+  </si>
+  <si>
+    <t>Sum tool</t>
+  </si>
+  <si>
+    <t>c
+group by "customername"
+sum(quantity) as TotalQty
+average(quantity) as AvgQty</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool</t>
+  </si>
+  <si>
+    <t>Find Within Field : a.facilityname</t>
+  </si>
+  <si>
+    <t>Find Value : d.facilityname</t>
+  </si>
+  <si>
+    <t>Formula tool</t>
+  </si>
+  <si>
+    <t>e.status = IIF([TotalQty]&gt;0, "Include","Exclude")
+e.insoip = IIF([TotalQty]&gt;0, "Y","N")</t>
+  </si>
+  <si>
+    <t>Select all columns except : TotalQty, AvgQty</t>
+  </si>
+  <si>
+    <t>Facilities table in model - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>Return forecast - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>Filter Tool</t>
+  </si>
+  <si>
+    <t>[notes] = "Returns_SeptemberSOIP"</t>
+  </si>
+  <si>
+    <t>d.true
+group by facilityname
+sum(constraintvalue) as TotalQty
+average(constraintvalue) as AvgQty</t>
+  </si>
+  <si>
+    <t>Find Value : e.facilityname</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : d.TotalQty, d.AvgQty</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : e.TotalQty</t>
+  </si>
+  <si>
+    <t>status = IIF(StartsWith([facilityname], "R_"), IIF([TotalQty]&gt;0, "Include","Exclude")
+, [status])
+insoipmodel = IIF([TotalQty]&gt;0, "Y","N")</t>
+  </si>
+  <si>
+    <t>Select all columns except : TotalQty</t>
+  </si>
+  <si>
+    <t>Customer fulfillment policies in model - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>soipplan = "N"
+status = "Exclude"
+notes = "NewAllToAll_Issues"</t>
+  </si>
+  <si>
+    <t>Join tool</t>
+  </si>
+  <si>
+    <t>Depot Assumptions File</t>
+  </si>
+  <si>
+    <t>SOIP - Depot Assignments - July</t>
+  </si>
+  <si>
+    <t>Left = b
+Right = 7 (SOIP - Depot Assignments - July)
+--------
+Join on…
+left.customername = right.Oname and left.sourcename = right.RevisedDName</t>
+  </si>
+  <si>
+    <t>Formula tool (on c.inner)</t>
+  </si>
+  <si>
+    <t>soipplan = IIF([sourcename] = [RevisedDName], "Y", "N")
+soip_depot_id = [RevisedDName]
+status = IIF([sourcename] = [RevisedDName], "Include", "Exclude")
+notes = IIF([sourcename] = [RevisedDName],"Baseline_Issues","NewAllToAll_Issues")</t>
+  </si>
+  <si>
+    <t>Select all columns except : RevisedDName</t>
+  </si>
+  <si>
+    <t>Union tool</t>
+  </si>
+  <si>
+    <t>c.left
+union 
+e</t>
+  </si>
+  <si>
+    <t>Select all columns</t>
+  </si>
+  <si>
+    <t>Replenishment policies table in model - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>soipplan = "N"
+status = IIF(Left([sourcename], 1) ="R", "Exclude",[status])
+notes = IIF(Left([sourcename], 1) ="R", "NewAllToAll_Returns",[notes])</t>
+  </si>
+  <si>
+    <t>Left = b
+Right = 7 (SOIP - Depot Assignments - July)
+--------
+Join on…
+left.sourcename = right.Oname and left.facilityname = right.RevisedDName</t>
+  </si>
+  <si>
+    <t>soipplan = IIF([facilityname] = [RevisedDName], "Y", "N")
+soip_depot_id = [RevisedDName]
+status = IIF([facilityname] = [RevisedDName], "Include", "Exclude")
+notes = IIF([facilityname] = [RevisedDName], "Baseline_Returns",[notes])</t>
+  </si>
+  <si>
+    <t>Reviewed Sheet?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Location table in data warehouse - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>select tbl_tab_Location.* from tbl_tab_Location</t>
+  </si>
+  <si>
+    <t>This is from our data warehouse</t>
+  </si>
+  <si>
+    <t>Customer demand</t>
+  </si>
+  <si>
+    <t>Filter tool - Select only renters</t>
+  </si>
+  <si>
+    <t>1 where [RL Location Type] = "Renter" or IsNull([RL Location Type])</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over corporate codes</t>
+  </si>
+  <si>
+    <t>Find Within Field : a.loccode</t>
+  </si>
+  <si>
+    <t>Find Value : c == True.Code</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : c==True.Corporate Name, c==True.Corporate Code</t>
+  </si>
+  <si>
+    <t>Filter tool on e</t>
+  </si>
+  <si>
+    <t>ToNumber(Right([periodname], 2)) &lt;= 12</t>
+  </si>
+  <si>
+    <t>f.True
+group by customername
+sum(quantity) as TotalQty</t>
+  </si>
+  <si>
+    <t>Find Within Field : d.customername</t>
+  </si>
+  <si>
+    <t>Find Value : g.customername</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : g.TotalQty</t>
+  </si>
+  <si>
+    <t>corpcode = [Corporate Code]
+corpname = [Corporate Name]
+soipquantity = [TotalQty]
+issueqty = [TotalQty]</t>
+  </si>
+  <si>
+    <t>Select all columns from I except : Corporate Name, Corporate Code, TotalQty</t>
+  </si>
+  <si>
+    <t>Expression - value="[notes] = "Returns_SOIP" AND ToNumber(Right([periodname], 2)) &lt; 12"</t>
+  </si>
+  <si>
+    <t>Facilities table in model</t>
+  </si>
+  <si>
+    <t>Filter tool - Select return locations</t>
+  </si>
+  <si>
+    <t>a.StartsWith([facilityname], "R_")</t>
+  </si>
+  <si>
+    <t>Find Within Field : c==True.loccode</t>
+  </si>
+  <si>
+    <t>Find Value : d==True.Code</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : d==True.Corporate Name, d==True.Corporate Code</t>
+  </si>
+  <si>
+    <t>Looks like the name is a typo. This should be "Select only return locations".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 where [RL Location Type] = "Distributor" OR [RL Location Type] = "Recovery"  OR [RL Location Type] = "NPD" </t>
+  </si>
+  <si>
+    <t>Filter tool</t>
+  </si>
+  <si>
+    <t>[notes] = "Returns_SOIP" AND ToNumber(Right([periodname], 2)) &lt;= 12</t>
+  </si>
+  <si>
+    <t>Select all columns from f==True</t>
+  </si>
+  <si>
+    <t>g
+group by facilityname
+sum(constraintvalue) as TotalQty</t>
+  </si>
+  <si>
+    <t>Find Within Field : e.facilityname</t>
+  </si>
+  <si>
+    <t>Find Value : h.facilityname</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : h.TotalQty</t>
+  </si>
+  <si>
+    <t>corpcode = [Corporate Code]
+corpname = [Corporate Name]
+returnquantity = [TotalQty]</t>
+  </si>
+  <si>
+    <t>Select all columns from j except : Corporate Name, Corporate Code</t>
+  </si>
+  <si>
+    <t>k 
+union 
+c==False</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Select all columns from l except : TotalQty</t>
+  </si>
+  <si>
+    <t>select a.movetype as movetype,
+	a.Customer as customer,
+	Count(a.Depot) as number_of_depots 
+from 
+	(
+	select case 
+				when Left(a.TNumber, 2) = 'IS' then 'Issue' 
+				when Left(a.TNumber, 1) = 'R' then 'Return' 
+				else '' 
+			end as movetype,
+		case 
+				when Left(a.TNumber, 2) = 'IS' then b.Code 
+				when Left(a.TNumber, 1) = 'R' then c.Code 
+				else '' 
+			end as Depot,
+		case 
+				when Left(a.TNumber, 2) = 'IS' then c.Code 
+				when Left(a.TNumber, 1) = 'R' then b.Code 
+				else '' 
+			end as Customer,
+		Sum(a.RL_T_Actual_Qty_From) as total_pallets 
+	from mtms a 
+		left join tbl_tab_Location b on a.RL_T_Location_From = b.IID 
+		left join tbl_tab_Location c on a.RL_T_Location_To = c.IID 
+	where DateDiff(day, Cast(a.RL_T_Date_To as date), Cast(GetDate() as date)) &lt;= 90 
+	group by case 
+				when Left(a.TNumber, 2) = 'IS' then 'Issue' 
+				when Left(a.TNumber, 1) = 'R' then 'Return' 
+				else '' 
+			end, case 
+				when Left(a.TNumber, 2) = 'IS' then b.Code 
+				when Left(a.TNumber, 1) = 'R' then c.Code 
+				else '' 
+			end, case 
+				when Left(a.TNumber, 2) = 'IS' then c.Code 
+				when Left(a.TNumber, 1) = 'R' then b.Code 
+				else '' 
+			end
+	) a 
+group by a.movetype, a.Customer</t>
+  </si>
+  <si>
+    <t>Issues from Data Warehouse - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>Filter tool on 1</t>
+  </si>
+  <si>
+    <t>[movetype] = "Issue"</t>
+  </si>
+  <si>
+    <t>Customers table in model</t>
+  </si>
+  <si>
+    <t>Filter on 4
+StartsWith([facilityname], "R_")</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over customer name</t>
+  </si>
+  <si>
+    <t>Find Within Field : 2==True.customer</t>
+  </si>
+  <si>
+    <t>Find Value : 3.loccode</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 3.customername</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over facility name</t>
+  </si>
+  <si>
+    <t>Find Within Field : 3.customer</t>
+  </si>
+  <si>
+    <t>Find Value : 5==True.loccode</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 5==True.facilityname</t>
+  </si>
+  <si>
+    <t>Select all columns from 8. 
+Rename facilityname to ModelID</t>
+  </si>
+  <si>
+    <t>Select all columns from 6. 
+Rename customername to ModelID</t>
+  </si>
+  <si>
+    <t>7
+union
+9</t>
+  </si>
+  <si>
+    <t>10 !IsNull([ModelID])</t>
+  </si>
+  <si>
+    <t>Customer fulfillment policies table in model - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over customer information</t>
+  </si>
+  <si>
+    <t>Find Value :  3.customername</t>
+  </si>
+  <si>
+    <t>Find Within Field : a.customername</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 3.country, 3.georegion, 3.pecoregion, 3.pecosubregion, 3.zone</t>
+  </si>
+  <si>
+    <t>Select tool - Rename customer fields</t>
+  </si>
+  <si>
+    <t>Rename: country:CustCountry, georegion:CustRegionGeo, pecoregion:CustRegionNbr, pecodubregion:CustRegionSub, zone:CustZone</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over depot information</t>
+  </si>
+  <si>
+    <t>Find Within Field : c.sourcename</t>
+  </si>
+  <si>
+    <t>Find Value :  4.facilityname</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 4.country, 4.depottype, 4.georegion, 4.pecoregion, 4.pecosubregion, 4.zone</t>
+  </si>
+  <si>
+    <t>Rename depot fields</t>
+  </si>
+  <si>
+    <t>d.country:DepCountry, d.georegion:DepRegionGeo, d.pecoregion:DepRegionNbr, d.pecosubregion:DepRegionSub, d.depottype2:DepType, d.zone:DepZone</t>
+  </si>
+  <si>
+    <t>Select all columns from f</t>
+  </si>
+  <si>
+    <t>Filter tool on g</t>
+  </si>
+  <si>
+    <t>Find Within Field : e.customername</t>
+  </si>
+  <si>
+    <t>Find Value :  i.customername</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : i.AvgQty</t>
+  </si>
+  <si>
+    <t>Formula tool - Update policies table fields</t>
+  </si>
+  <si>
+    <t>depottype = [DepType]
+oregion = [DepRegionGeo]
+dregion = [CustRegionGeo]
+ocountry = [DepCountry]
+dcountry = [CustCountry]
+ozone = [DepZone]
+dzone = [CustZone]
+opecoregion = [DepRegionNbr]
+dpecoregion = [CustRegionNbr]
+opecosubregion = [DepRegionSub]
+dpecosubregion = [CustRegionSub]
+mileageband = IIF(ToNumber([distance])&gt;=2000 , "GT2000", IIF(ToNumber([distance])&gt;=1500 , "GT1500", IIF(ToNumber([distance])&gt;=1000 , "GT1000", IIF(ToNumber([distance])&gt;=500 , "GT0500", IIF(ToNumber([distance])&gt;=400 , "GT0400", IIF(ToNumber([distance])&gt;=300 , "GT0300", IIF(ToNumber([distance])&gt;=200 , "GT0200", IIF(ToNumber([distance])&gt;=150 , "GT0150", IIF(ToNumber([distance])&gt;=100 , "GT0100", IIF(ToNumber([distance])&gt;=50 , "GT0050", "LT0050"))))))))))
+monthly_avg = [AvgQty]
+monthlypalletband = IIF([AvgQty]&lt;=3500, "LT3500", "GT3500")</t>
+  </si>
+  <si>
+    <t>Find Within Field : k.customername</t>
+  </si>
+  <si>
+    <t>Find Value :  11==True.ModelID</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 11==True.number_of_depots</t>
+  </si>
+  <si>
+    <t>Formula tool on l</t>
+  </si>
+  <si>
+    <t>number_of_depots_served = [number_of_depots]
+nbrdepotsband = IIF(tonumber([number_of_depots_served])&lt;=1, "LT01", "GT01")
+addtomodel = IIF([soipplan] = "N" AND ToNumber([distance])&lt;= 1000 AND [greenfieldcandidate] = "Y" AND IsEmpty([cpudedicated]) AND (ToNumber([monthly_avg])&lt;=3500 OR ToNumber([number_of_depots_served])&gt;=2), "Y", "N")</t>
+  </si>
+  <si>
+    <t>What is the purpose of this tool?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Select tool - Remove added fields</t>
+  </si>
+  <si>
+    <t>select from m all columns except : CustCountry, CustRegionGeo, CustRegionSub, CustZone, DepCountry, DepRegionGeo, DepRegionNbr, DepRegionSub, DepType, DepZone, AvgQty, number_of_depots</t>
+  </si>
+  <si>
+    <t>Expression - value="[notes] = "Returns_SOIP" AND ToNumber(Right([periodname], 2)) &lt;= 12"</t>
+  </si>
+  <si>
+    <t>Find Within Field : a.sourcename</t>
+  </si>
+  <si>
+    <t>Find Value : 4.facilityname</t>
+  </si>
+  <si>
+    <t>Rename: country:OriginCountry, depottype:OriginDepotType, georegion:OriginRegionGeo, pecoregion:OriginRegionNbr, pecosubregion:OriginRegionSub, zone:OriginZone</t>
+  </si>
+  <si>
+    <t>Find Within Field : c.facilityname</t>
+  </si>
+  <si>
+    <t>Select tool - Rename depot fields</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over source (returning customer) information</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Pull over destination (depot) information</t>
+  </si>
+  <si>
+    <t>Rename: country:DestCountry, depottype:DestDepotType, georegion:DestRegionGeo, pecoregion:DestRegionNbr, pecosubregion:DestRegionSub, zone:DestZone</t>
+  </si>
+  <si>
+    <t>Filter tool on f</t>
+  </si>
+  <si>
+    <t>h.True
+group by customername
+sum(quantity) as TotalQty
+average(quantity) as AvgQty</t>
+  </si>
+  <si>
+    <t>Select all columns from g.True</t>
+  </si>
+  <si>
+    <t>h
+group by facilityname
+sum(constraintvalue) as TotalQty
+average(constraintvalue) as AvgQty</t>
+  </si>
+  <si>
+    <t>Find Within Field : e.sourcename</t>
+  </si>
+  <si>
+    <t>Find Value :  i.facilityname</t>
+  </si>
+  <si>
+    <t>Why is  the depot and customer region, zone, etc. missing from customerfulfillmentpolicies?</t>
+  </si>
+  <si>
+    <t>odepottype = [OriginDepotType]
+ddepottype = [DestDepotType]
+ocountry = [OriginCountry]
+dcountry = [DestCountry]
+oregion = [OriginRegionGeo]
+dregion = [DestRegionGeo]
+opecoregion = [OriginRegionNbr]
+dpecoregion = [DestRegionNbr]
+opecosubregion = [OriginRegionSub]
+dpecosubregion = [DestRegionSub]
+mileageband = IIF(ToNumber([distance])&gt;=2000 , "GT2000", IIF(ToNumber([distance])&gt;=1500 , "GT1500", IIF(ToNumber([distance])&gt;=1000 , "GT1000", IIF(ToNumber([distance])&gt;=500 , "GT0500", IIF(ToNumber([distance])&gt;=400 , "GT0400", IIF(ToNumber([distance])&gt;=300 , "GT0300", IIF(ToNumber([distance])&gt;=200 , "GT0200", IIF(ToNumber([distance])&gt;=150 , "GT0150", IIF(ToNumber([distance])&gt;=100 , "GT0100", IIF(ToNumber([distance])&gt;=50 , "GT0050", "LT0050"))))))))))
+monthly_avg = [AvgQty]
+monthlypalletband = IIF([AvgQty]&lt;=3500, "LT3500", "GT3500")</t>
+  </si>
+  <si>
+    <t>Find Within Field : k.sourcename</t>
+  </si>
+  <si>
+    <t>number_of_depots_served = [number_of_depots]
+nbrdepotsband = IIF(tonumber([number_of_depots_served])&lt;=1, "LT01", "GT01")
+addtomodel = IIF(StartsWith([sourcename], "R_") AND [soipplan] = "N" AND ToNumber([distance])&lt;= 1000 AND [greenfieldcandidate] = "Y" AND IsEmpty([cpudedicated]) AND (ToNumber([monthly_avg])&lt;=3500 OR ToNumber([number_of_depots_served])&gt;=2), "Y", "N")</t>
+  </si>
+  <si>
+    <t>select from m all columns except : OriginCountry, OriginDepotType, OriginRegionGeo, OriginRegionSub, OriginZone, DestCountry, DestDepotType, DestRegionGeo, DestRegionNbr, DestRegionSub, DestZone, AvgQty, number_of_depots</t>
+  </si>
+  <si>
+    <t>transportation policies table in model - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>Transportation Policies</t>
+  </si>
+  <si>
+    <t>select transpotationpolicies.* from transportationpolicies</t>
+  </si>
+  <si>
+    <t>Find Within Field : a.originname</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 4.country, 4.loccode</t>
+  </si>
+  <si>
+    <t>select all columns from b
+Rename the following:
+country:OriginCountry
+loccode:OriginLocCode</t>
+  </si>
+  <si>
+    <t>Find Within Field : c.destinationname</t>
+  </si>
+  <si>
+    <t>select all columns from d
+Rename the following:
+country:DestCountry
+loccode:DestLocCode</t>
+  </si>
+  <si>
+    <t>ocountry = [OriginCountry]
+dcountry = [DestCountry]
+oloccode = [OriginLocCode]
+dloccode = [DestLocCode]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do we have to bring the region, zone, etc information in for all origins and dests in the customer fulfillment policies, replenishment policies, and transportation policies tables? </t>
+  </si>
+  <si>
+    <t>select all columns from f except : OriginCOuntry, OriginLocCOde, DestCountry, DestLocCode</t>
+  </si>
+  <si>
+    <t>Closest Depot Identifier</t>
+  </si>
+  <si>
+    <t>Filter tool on a.Inner</t>
+  </si>
+  <si>
+    <t>[DepotStatus] = "Include" AND ([depottype] = "Full Service" OR [depottype] = "Sort Only" )</t>
+  </si>
+  <si>
+    <t>Sort tool on b.True</t>
+  </si>
+  <si>
+    <t>customername Asc, distance Asc</t>
+  </si>
+  <si>
+    <t>Multi-Row Formula tool</t>
+  </si>
+  <si>
+    <t>IIF([customername]=[Row-1:customername], [Row-1:DistanceRank]+1, 1)</t>
+  </si>
+  <si>
+    <t>[DistanceRank] = 1</t>
+  </si>
+  <si>
+    <t>select the following columns from e.True : customername, sourcename</t>
+  </si>
+  <si>
+    <t>left input: 12.n (Customer fulfillment policies)
+right input: 4
+on 
+left.sourcename = right.facilityname</t>
+  </si>
+  <si>
+    <t>left input: 12.n (Customer fulfillment policies)
+right input: f
+on
+        left.customername = right.customername
+and left.sourcename = right.sourcename</t>
+  </si>
+  <si>
+    <t>Formula tool on g.Left output only</t>
+  </si>
+  <si>
+    <t>closestdepot="N"</t>
+  </si>
+  <si>
+    <t>Formula tool on g.Inner output only</t>
+  </si>
+  <si>
+    <t>closestdepot="Y"</t>
+  </si>
+  <si>
+    <t>h union i</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTE: These create an updated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customerfulfillmentpolicies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTE: These create an updated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replenishmentpolicies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table.</t>
+    </r>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>left input: 15.n (Replenishment policies)
+right input: 4
+on 
+left.facilityname = right.facilityname</t>
+  </si>
+  <si>
+    <t>[DepotStatus] = "Include" AND ([ddepottype] = "Full Service" OR [ddepottype] = "Sort Only" ) AND Left([sourcename], 1) = "R"</t>
+  </si>
+  <si>
+    <t>Filter tool on k.Inner</t>
+  </si>
+  <si>
+    <t>Sort tool on m.True</t>
+  </si>
+  <si>
+    <t>sourcename Asc, distance Asc</t>
+  </si>
+  <si>
+    <t>IIF([sourcename]=[Row-1:sourcename], [Row-1:DistanceRank]+1, 1)</t>
+  </si>
+  <si>
+    <t>select the following columns from o.True : facilityname, sourcename</t>
+  </si>
+  <si>
+    <t>left input: 15.n (Replenishment policies)
+right input: p
+on
+        left.facilityname = right.facilityname
+and left.sourcename = right.sourcename</t>
+  </si>
+  <si>
+    <t>Formula tool on q.Left output only</t>
+  </si>
+  <si>
+    <t>Formula tool on q.Inner output only</t>
+  </si>
+  <si>
+    <t>r union s</t>
   </si>
 </sst>
 </file>
@@ -308,7 +1541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,12 +1556,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -336,22 +1575,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,49 +1994,49 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -728,436 +2046,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
-  <dimension ref="A1:E53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="73.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="85.54296875" customWidth="1"/>
+    <col min="8" max="8" width="46.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +2567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1189,21 +2575,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
-        <v>1</v>
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1228,12 +2618,2894 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D53" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D53">
+  <autoFilter ref="B1:F53" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F53">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736758DB-432D-43DC-806C-DBD25A95B6E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E49616A-EF6F-49EC-9DA2-E4B17497683E}">
+  <dimension ref="A1:F117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D30" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D102" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C9A7F-8056-4B55-BD1C-FF48D0F05B92}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066D2980-1350-49EA-B629-4EB5DB48219D}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A45E050-E71B-4380-9782-9CB2A1906CE4}">
+  <dimension ref="A1:E97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" t="s">
+        <v>336</v>
+      </c>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>14</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D44" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>334</v>
+      </c>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D48" t="s">
+        <v>357</v>
+      </c>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>16</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>17</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B80" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B84" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B88" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" s="28"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" s="28"/>
+    </row>
+    <row r="94" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B94" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E94" s="28"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B95" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E95" s="28"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E96" s="28"/>
+    </row>
+    <row r="97" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E97" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006EE257-EA07-452B-A6D4-4DDDF5ECDC1D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Original File Explanation.xlsx
+++ b/docs/Original File Explanation.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C143F54-ACFE-4453-9ABD-59B4DC4AB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D51E99-18AD-48F8-A359-56B778C038DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
+    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
   </bookViews>
   <sheets>
     <sheet name="High Level" sheetId="2" r:id="rId1"/>
-    <sheet name="Specific Files" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
-    <sheet name="010-Depot Costs..." sheetId="3" r:id="rId4"/>
-    <sheet name="015 - Set SOIP Solve Flag" sheetId="4" r:id="rId5"/>
-    <sheet name="017 - Issue and Return..." sheetId="6" r:id="rId6"/>
-    <sheet name="020 - Lane Attributes" sheetId="7" r:id="rId7"/>
-    <sheet name="030 - NPD Percentage Penalty" sheetId="9" r:id="rId8"/>
+    <sheet name="010-Depot Costs..." sheetId="3" r:id="rId2"/>
+    <sheet name="015 - Set SOIP Solve Flag" sheetId="4" r:id="rId3"/>
+    <sheet name="017 - Issue and Return..." sheetId="6" r:id="rId4"/>
+    <sheet name="020 - Lane Attributes" sheetId="7" r:id="rId5"/>
+    <sheet name="030 - NPD Percentage Penalty" sheetId="9" r:id="rId6"/>
+    <sheet name="060 - Transportation Rates Hist" sheetId="10" r:id="rId7"/>
+    <sheet name="070 - Trans Load Size" sheetId="11" r:id="rId8"/>
+    <sheet name="090 - Flag Multi Source" sheetId="13" r:id="rId9"/>
+    <sheet name="100-Transfer Matrix Update" sheetId="14" r:id="rId10"/>
+    <sheet name="110-Renter Dist Sort Pref Depot" sheetId="15" r:id="rId11"/>
+    <sheet name="Specific Files" sheetId="1" r:id="rId12"/>
+    <sheet name="CF Tables Altered" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Specific Files'!$B$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'CF Tables Altered'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Specific Files'!$B$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="773">
   <si>
     <t>Type</t>
   </si>
@@ -1519,12 +1525,1901 @@
   <si>
     <t>r union s</t>
   </si>
+  <si>
+    <t>Renter Assumptions</t>
+  </si>
+  <si>
+    <t>SOIP Optimization Assumptions</t>
+  </si>
+  <si>
+    <t>Read in "Renter Assumptions" tab</t>
+  </si>
+  <si>
+    <t>Customer fulfillment policies - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>Filter Tool on 4</t>
+  </si>
+  <si>
+    <t>[depottype] = "Manufacturing"</t>
+  </si>
+  <si>
+    <t>Control Parameter (15) New Pallet Cost</t>
+  </si>
+  <si>
+    <t>Update Value Update Value</t>
+  </si>
+  <si>
+    <t>Find Within Field : 5==True.customername</t>
+  </si>
+  <si>
+    <t>Find Value :  3.ModelID</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 3.NPD %</t>
+  </si>
+  <si>
+    <t>NewPalletCost = 0</t>
+  </si>
+  <si>
+    <t>Formula tool - Refresh NPD penalty costs</t>
+  </si>
+  <si>
+    <t>unitcost = 0
+unitcost = [NPD %]*[NewPalletCost]</t>
+  </si>
+  <si>
+    <t>Setting NewPallerCost to 0 makes the unitcost in the next formula tool always 0.</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>Select all rows from 10 except : NPD % and NewPalletCost</t>
+  </si>
+  <si>
+    <t>5==False 
+union
+11</t>
+  </si>
+  <si>
+    <t>CF Tables Altered</t>
+  </si>
+  <si>
+    <t>warehousing policies
+facilities
+production policies
+customer fulfillment policies
+production constraints
+inventory constraints
+inventory policies
+replenishment policies</t>
+  </si>
+  <si>
+    <t>customers
+facilities
+customer fulfillment policies
+replenishment policies</t>
+  </si>
+  <si>
+    <t>customers
+facilities</t>
+  </si>
+  <si>
+    <t>customer fulfillment policies
+replenishment policies
+transportation policies</t>
+  </si>
+  <si>
+    <t>customer fulfillment policies</t>
+  </si>
+  <si>
+    <t>transportation policies
+customer fulfillment policies
+replenishment policies</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Transportation Policies - Execute the following SQL</t>
+  </si>
+  <si>
+    <t>select transportatinpolicies.* from transportationpolicies</t>
+  </si>
+  <si>
+    <t>Formula Tool</t>
+  </si>
+  <si>
+    <t>fixedcost = [marketrate]
+rateused = "MarketRate"
+cpu = ""</t>
+  </si>
+  <si>
+    <t>Data Warehouse - Execute SQL</t>
+  </si>
+  <si>
+    <t>select a.*,
+	case 
+			when a.CPU_Loads &gt; 0 and a.Dedicated_Loads &gt; 0 then 'Split' 
+			when a.CPU_Loads &gt; 0 and a.Other_Loads &gt; 0 then 'Split' 
+			when a.Dedicated_Loads &gt; 0 and a.Other_Loads &gt; 0 then 'Split' 
+			when a.Dedicated_Loads &gt; 0 and a.Other_Loads &gt; 0 and a.CPU_Loads &gt; 0 then 'Split' 
+			else '' 
+		end as Split_Carrier_Type_Flag 
+from 
+	(
+	select case 
+				when Left(mtms.TNumber, 2) = 'IS' then 'Issue' 
+				when Left(mtms.TNumber, 1) = 'R' then 'Return' 
+				when Left(mtms.TNumber, 3) = 'TOR' then 'Transfer' 
+				else '' 
+			end as movetype,
+		case 
+				when Left(mtms.TNumber, 2) = 'IS' then b.Code 
+				when Left(mtms.TNumber, 1) = 'R' then c.Code 
+				else '' 
+			end as Depot,
+		case 
+				when Left(mtms.TNumber, 2) = 'IS' then c.Code 
+				when Left(mtms.TNumber, 1) = 'R' then b.Code 
+				else '' 
+			end as Customer,
+		b.Code + '-' + c.Code as Lane_ID,
+		b.Name as origin_Name,
+		c.Name as Destination_Name,
+		Sum(
+			case 
+					when mtms.TMS_CarrierSCAC in ('CPU', 'KFPM', 'KRFN', 'IBCO', 'BOZZ', 'LOBW', 'MRDI', 'BGLT', 'FRTRN', 'SWCO') then 1 
+					else 0 
+				end) as CPU_Loads,
+		Sum(
+			case 
+					when mtms.TMS_CarrierSCAC in ('AWAW', 'AWSL', 'AWTO', 'CLBC', 'CLPY', 'CPQP', 'GARP', 'GDKP', 'HJBD', 'HJCS', 'JBDD', 'JBTA', 'JDCS', 'JITX', 'PLMQ', 'PPIR', 'SYDW', 'UDLC', 'WPSL') then 1 
+					else 0 
+				end) as Dedicated_Loads,
+		Sum(
+			case 
+					when mtms.TMS_CarrierSCAC not in ('JDCS', 'HJCS', 'SYDW', 'JBDD', 'GDKP', 'CLPY', 'HJBD', 'PLMQ', 'UDLC', 'AWTO', 'PPIR', 'JITX', 'DAAI', 'GARP', 'CPU', 'KFPM', 'KRFN', 'IBCO', 'BOZZ', 'LOBW', 'MRDI', 'BGLT', 'FRTRN', 'SWCO') then 1 
+					else 0 
+				end) as Other_Loads 
+	from mtms mtms 
+		left join tbl_tab_Location b on mtms.RL_T_Location_From = b.IID 
+		left join tbl_tab_Location c on mtms.RL_T_Location_To = c.IID 
+	where DateDiff(day, Cast(mtms.RL_T_Date_To as date), Cast(GetDate() as date)) &lt;= 60 
+		and mtms.RL_O_Status &lt;&gt; 5 
+		and Left(mtms.TNumber, 3) &lt;&gt; 'DDT' 
+		and mtms.TMS_CarrierSCAC is not NULL 
+	group by case 
+				when Left(mtms.TNumber, 2) = 'IS' then 'Issue' 
+				when Left(mtms.TNumber, 1) = 'R' then 'Return' 
+				when Left(mtms.TNumber, 3) = 'TOR' then 'Transfer' 
+				else '' 
+			end, case 
+				when Left(mtms.TNumber, 2) = 'IS' then b.Code 
+				when Left(mtms.TNumber, 1) = 'R' then c.Code 
+				else '' 
+			end, case 
+				when Left(mtms.TNumber, 2) = 'IS' then c.Code 
+				when Left(mtms.TNumber, 1) = 'R' then b.Code 
+				else '' 
+			end, b.Code + '-' + c.Code, b.Name, c.Name
+	) as a</t>
+  </si>
+  <si>
+    <t>Data Warehouse - Count of loads by type and lane - Execute SQL</t>
+  </si>
+  <si>
+    <t>Customer table in model - Execute SQL</t>
+  </si>
+  <si>
+    <t>Facilities table in model - Execute SQL</t>
+  </si>
+  <si>
+    <t>History - Issues, Returns, and Transfers by Lane Type</t>
+  </si>
+  <si>
+    <t>Formula Tool - Update Transform - Flag Type of Move (on 3)</t>
+  </si>
+  <si>
+    <t>IIF([CPU_Loads]&gt;0, "CPU", IIF([Dedicated_Loads]&gt;0, "Dedicated", "Contract Carrier"))</t>
+  </si>
+  <si>
+    <t>[Split_Carrier_Type_Flag] = "Split"</t>
+  </si>
+  <si>
+    <t>Filter tool - (on 5)</t>
+  </si>
+  <si>
+    <t>Filter tool - (on 6.a)</t>
+  </si>
+  <si>
+    <t>StartsWith([facilityname], "R_")</t>
+  </si>
+  <si>
+    <t>Formula Tool - Update Transform - Flag Type of Move (on c==True)</t>
+  </si>
+  <si>
+    <t>IIF([CPU_Loads]&gt;[Dedicated_Loads] and [CPU_Loads]&gt; [Other_Loads], "CPU", IIF([Dedicated_Loads]&gt;[CPU_Loads] and [Dedicated_Loads]&gt;[Other_Loads], "Dedicated", "Contract Carrier"))</t>
+  </si>
+  <si>
+    <t>Why not do this one instead of a?</t>
+  </si>
+  <si>
+    <t>Find Within Field : f==True.Customer</t>
+  </si>
+  <si>
+    <t>Find Value : 4.loccode</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 4.customername</t>
+  </si>
+  <si>
+    <t>Find Within Field : g.Depot</t>
+  </si>
+  <si>
+    <t>Find Value : 5.loccode</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : 5.facilityname</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Get customer name</t>
+  </si>
+  <si>
+    <t>Find / Replace Tool - Get facility name</t>
+  </si>
+  <si>
+    <t>Select all columns from h
+Rename the following:
+customername : DModelID
+facilityname : OModelID</t>
+  </si>
+  <si>
+    <t>FIlter tool - (on f==False)</t>
+  </si>
+  <si>
+    <t>[movetype] = "Return"</t>
+  </si>
+  <si>
+    <t>Why not join to customers and facilities before splitting into issue, returh, and other? That way you do 2 joins instead of 6.</t>
+  </si>
+  <si>
+    <t>Find Within Field : j==True.Customer</t>
+  </si>
+  <si>
+    <t>Find Value : b==True.loccode</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : b==True.facilityname</t>
+  </si>
+  <si>
+    <t>Find Within Field : k.Depot</t>
+  </si>
+  <si>
+    <t>Find Value : b==False.loccode</t>
+  </si>
+  <si>
+    <t>Append Field(s) to Record : b==False.facilityname</t>
+  </si>
+  <si>
+    <t>Formula tool - (on j==False)</t>
+  </si>
+  <si>
+    <t>Depot = Right([Lane_ID], 5)
+Customer = Left([Lane_ID], 5)</t>
+  </si>
+  <si>
+    <t>Find Within Field : n.Customer</t>
+  </si>
+  <si>
+    <t>Find Within Field : p.Depot</t>
+  </si>
+  <si>
+    <t>Select all columns from l
+Rename the following:
+facilityname : DModelID
+facilityname2 : OModelID</t>
+  </si>
+  <si>
+    <t>Select all columns from p
+Rename the following:
+facilityname : DModelID
+facilityname2 : OModelID</t>
+  </si>
+  <si>
+    <t>i
+union 
+m
+union 
+q</t>
+  </si>
+  <si>
+    <t>d 
+union
+c==False</t>
+  </si>
+  <si>
+    <t>Shipment History</t>
+  </si>
+  <si>
+    <t>Data warehouse - Execute SQL</t>
+  </si>
+  <si>
+    <t>select case 
+			when Left(mtms.TNumber, 2) = 'IS' then 'Issue' 
+			when Left(mtms.TNumber, 1) = 'R' then 'Return' 
+			when Left(mtms.TNumber, 3) = 'TOR' then 'Transfer' 
+			else '' 
+		end as movetype,
+	case 
+			when Left(mtms.TNumber, 2) = 'IS' then b.Code 
+			when Left(mtms.TNumber, 1) = 'R' then c.Code 
+			else '' 
+		end as Depot,
+	case 
+			when Left(mtms.TNumber, 2) = 'IS' then c.Code 
+			when Left(mtms.TNumber, 1) = 'R' then b.Code 
+			else '' 
+		end as Customer,
+	b.Code + '-' + c.Code as Lane_ID,
+	mtms.TMS_CarrierSCAC as SCAC,
+	case 
+			when mtms.TMS_CarrierSCAC in ('CPU', 'KFPM', 'KRFN', 'IBCO', 'BOZZ', 'LOBW', 'MRDI', 'BGLT', 'FRTRN', 'SWCO') then 'CPU' 
+			when mtms.TMS_CarrierSCAC in ('AWAW', 'AWSL', 'AWTO', 'CLBC', 'CLPY', 'CPQP', 'GARP', 'GDKP', 'HJBD', 'HJCS', 'JBDD', 'JBTA', 'JDCS', 'JITX', 'PLMQ', 'PPIR', 'SYDW', 'UDLC', 'WPSL') then 'Dedicated' 
+			else 'Other' 
+		end as Carrier_Type,
+	Sum(
+		case 
+				when IsNull(mtms.TMS_InvoiceTotalLineHaul, 0) &lt;&gt; 0 then (IsNull(mtms.TMS_InvoiceTotalLineHaul, 0) + IsNull(mtms.TMS_InvoiceTotalFuel, 0) + IsNull(mtms.TMS_InvoiceTotalOther, 0) + IsNull(mtms.TMS_InvoiceTotalDetention, 0) + IsNull(mtms.TMS_InvoiceTotalTax, 0)) * ((mtms.TMS_CarrierNormCharge) / NullIf((mtms.TMS_CarrierCharge), 0)) 
+				else IsNull(mtms.TMS_CarrierNormCharge, 0) 
+			end) as Ttl_Cost,
+	Sum(mtms.RL_T_Actual_Qty_From * -1) as Volume,
+	Count(mtms.RL_T_Actual_Qty_From) as Total_Loads,
+	Sum(IsNull(mtms.TMS_InvoiceTotalLineHaul, 0)) as Ttl_Fuel_Cost,
+	Sum(IsNull(mtms.TMS_InvoiceTotalLineHaul, 0)) as Ttl_LH_Cost,
+	c.Code as ToCode,
+	c.[NAV Location Type] as ToType,
+	b.Code as FromCode,
+	b.[NAV Location Type] as FromType,
+	mtms.RL_O_Creation_Date,
+	mtms.RL_O_Delivery_Date,
+	mtms.RL_PL_Date_To,
+	mtms.RL_PL_Date_From,
+	mtms.RL_T_Date_From,
+	mtms.RL_T_Date_To,
+	mtms.TMS_TransActualShip,
+	mtms.TMS_ActualDelivery,
+	mtms.TNumber 
+from mtms mtms 
+	left join tbl_tab_Location b on mtms.RL_T_Location_From = b.IID 
+	left join tbl_tab_Location c on mtms.RL_T_Location_To = c.IID 
+where DateDiff(month, Cast(mtms.RL_T_Date_To as date), Cast(GetDate() as date)) &lt;= 3 
+	and mtms.RL_O_Status &lt;&gt; 5 
+	and Left(mtms.TNumber, 3) &lt;&gt; 'DDT' 
+	and mtms.TMS_CarrierDistance is not NULL 
+group by case 
+			when Left(mtms.TNumber, 2) = 'IS' then 'Issue' 
+			when Left(mtms.TNumber, 1) = 'R' then 'Return' 
+			when Left(mtms.TNumber, 3) = 'TOR' then 'Transfer' 
+			else '' 
+		end, case 
+			when Left(mtms.TNumber, 2) = 'IS' then b.Code 
+			when Left(mtms.TNumber, 1) = 'R' then c.Code 
+			else '' 
+		end, case 
+			when Left(mtms.TNumber, 2) = 'IS' then c.Code 
+			when Left(mtms.TNumber, 1) = 'R' then b.Code 
+			else '' 
+		end, b.Code + '-' + c.Code, mtms.TMS_CarrierSCAC, case 
+			when mtms.TMS_CarrierSCAC in ('CPU', 'KFPM', 'KRFN', 'IBCO', 'BOZZ', 'LOBW', 'MRDI', 'BGLT', 'FRTRN', 'SWCO') then 'CPU' 
+			when mtms.TMS_CarrierSCAC in ('AWAW', 'AWSL', 'AWTO', 'CLBC', 'CLPY', 'CPQP', 'GARP', 'GDKP', 'HJBD', 'HJCS', 'JBDD', 'JBTA', 'JDCS', 'JITX', 'PLMQ', 'PPIR', 'SYDW', 'UDLC', 'WPSL') then 'Dedicated' 
+			else 'Other' 
+		end, c.Code, c.[NAV Location Type], b.Code, b.[NAV Location Type], mtms.RL_O_Creation_Date, mtms.RL_O_Delivery_Date, mtms.RL_PL_Date_To, mtms.RL_PL_Date_From, mtms.RL_T_Date_From, mtms.RL_T_Date_To, mtms.TMS_TransActualShip, mtms.TMS_ActualDelivery, mtms.TNumber</t>
+  </si>
+  <si>
+    <t>select tool</t>
+  </si>
+  <si>
+    <t>select all columns from a</t>
+  </si>
+  <si>
+    <t>Filter tool - (on b)</t>
+  </si>
+  <si>
+    <t>[Ttl_LH_Cost] &lt; 100</t>
+  </si>
+  <si>
+    <t>Filter tool - (on c==True)</t>
+  </si>
+  <si>
+    <t>[Carrier_Type] = "CPU"</t>
+  </si>
+  <si>
+    <t>d==True
+union
+c==False</t>
+  </si>
+  <si>
+    <t>e
+group by movetype, Lane_ID, Depot, Customer, Carrier_Type, SCAC
+sum(Total_Loads) as Sum_Total_Loads
+sum(Ttl_LH_Cost) as Sum_Ttl_LH_Cost</t>
+  </si>
+  <si>
+    <t>[Sum_Total_Loads] &gt; 5</t>
+  </si>
+  <si>
+    <t>Filter tool - (on f)</t>
+  </si>
+  <si>
+    <t>g==True
+group by movetype, Lane_ID, Depot, Customer
+max(Sum_Total_Loads) as Max_Sum_Total_Loads
+sum(Sum_Total_Loads) as Sum_Sum_Total_Loads
+sum((Sum_Ttl_LH_Cost) as Sum_Sum_Ttl_LH_Cost</t>
+  </si>
+  <si>
+    <t>left : h
+right : g==True
+---
+Join on
+left.movetype = right.movetype and
+left.Lane_ID = right.Lane_ID and
+left.Max_Sum_Total_Loads = right.Sum_Total_Loads
+---
+select left.*, right.SCAC, right.Carrier_Type</t>
+  </si>
+  <si>
+    <t>i.inner
+group by movetype, Lane_ID, Depot, Customer, Max_Sum_Total_Loads, Sum_Sum_Total_Loads, Sum_Sum_Ttl_LH_Cost
+first(SCAC)</t>
+  </si>
+  <si>
+    <t>left : j
+right : g==True
+---
+join on
+left.movetype = right.movetype and
+left.Lane_ID = right.Lane_ID and
+left.SCAC = right.SCAC
+---
+select left.*, right.Carrier_Type</t>
+  </si>
+  <si>
+    <t>Formula tool - (on k.inner)</t>
+  </si>
+  <si>
+    <t>CostPerLoadAvg = FLOOR([Sum_Sum_Ttl_LH_Cost]/[Max_Sum_Total_Loads])
+FromLocCode = Left([Lane_ID], 5)
+ToLocCode = Right([Lane_ID], 5)</t>
+  </si>
+  <si>
+    <t>The purpose of c, d, and e appears to be to drop all rows where Ttl_LH_Cost &lt; 100 AND Carrier_Type &lt;&gt; "CPU"</t>
+  </si>
+  <si>
+    <t>Why are we dividing by Max_Sum_Total_Loads and not Sum_Sum_Total_Loads?</t>
+  </si>
+  <si>
+    <t>Select the following columns from l :
+Lane_ID, movetype as T_Type, FromLocCode as O-Code, ToLocCode as D-Code, SCAC, Carrier_Type, CostPerLoadAvg</t>
+  </si>
+  <si>
+    <t>Filter tool - (on Shipment History 7.m)</t>
+  </si>
+  <si>
+    <t>[T_Type] = "Issue"</t>
+  </si>
+  <si>
+    <t>FIlter tool - on a==False</t>
+  </si>
+  <si>
+    <t>[T_Type] = "Return"</t>
+  </si>
+  <si>
+    <t>Find within : a==True.D-Code
+Find Value : 4.loccode
+Append Field(s) to Record : 4.customername</t>
+  </si>
+  <si>
+    <t>Find within : b==True.O-Code
+Find Value : 6.b==True.loccode
+Append Field(s) to Record : 6.b==True.facilityname</t>
+  </si>
+  <si>
+    <t>Find within : f.D-Code
+Find Value : 6.b==False.loccode
+Append Field(s) to Record : 6.b==False.facilityname</t>
+  </si>
+  <si>
+    <t>Find within : c.O-Code
+Find Value : 6.b==False.loccode
+Append Field(s) to Record : 6.b==False.facilityname</t>
+  </si>
+  <si>
+    <t>Select all columns from d
+Rename : 
+customername:DModelID, 
+facilityname:OModelID</t>
+  </si>
+  <si>
+    <t>Select all columns from d
+Rename : 
+facilityname:OModelID
+facilityname2:DModelID</t>
+  </si>
+  <si>
+    <t>Find within : b==False.O-Code
+Find Value : 6.b==False.loccode
+Append Field(s) to Record : 6.b==False.facilityname</t>
+  </si>
+  <si>
+    <t>Find within : i.D-Code
+Find Value : 6.b==False.loccode
+Append Field(s) to Record : 6.b==False.facilityname</t>
+  </si>
+  <si>
+    <t>e
+union
+h
+union
+k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why separate the dataset, then do the joins to bring in customername and facilityname, then union back together? </t>
+  </si>
+  <si>
+    <t>Post Find/Replace Tools</t>
+  </si>
+  <si>
+    <t>left : 2
+right : 6.r
+---
+join on
+left.originname = right.OModelID and
+left.destinationname = right.DModelID
+---
+select 
+left.*,
+right.Type</t>
+  </si>
+  <si>
+    <t>Formula tool - Set CPU/Dedicated flag and set CPU costs to 0 - (on a.inner)</t>
+  </si>
+  <si>
+    <t>cpu = IIF([Type] = "CPU", "C", IIF([Type] = "Dedicated", "D", Null()))
+fixedcost = IIF([Type] = "CPU", "0", [fixedcost])</t>
+  </si>
+  <si>
+    <t>Select all columns from b except : Type</t>
+  </si>
+  <si>
+    <t>a.left
+union
+c</t>
+  </si>
+  <si>
+    <t>left : d
+right : 8.l
+---
+join on
+left.originname = right.OModelID and
+left.destinationname = right.DModelID
+---
+select 
+left.*,
+right.Lane_ID
+right.SCAC as HistSCAC,
+right.Carrier_Type,
+right.CostPerLoadAvg</t>
+  </si>
+  <si>
+    <t>Formula tool - (on e.inner)</t>
+  </si>
+  <si>
+    <t>Why did we rename SCAC to HistSCAC if we're just going to make another column called scac = [HistSCAC] below?</t>
+  </si>
+  <si>
+    <t>histrate = IIF([ocountry] = "MEX" OR [dcountry] = "MEX", [CostPerLoadAvg]*.054, [CostPerLoadAvg])
+rateused = "HistRate"
+fixedcost = IIF([ocountry] = "MEX" OR [dcountry] = "MEX", [CostPerLoadAvg]*.054, [CostPerLoadAvg])
+scac = [HistSCAC]
+scaccarriertype = [Carrier_Type]</t>
+  </si>
+  <si>
+    <t>Why did we make the scac and scaccarriertype colunms?</t>
+  </si>
+  <si>
+    <t>Select tool - (on f)</t>
+  </si>
+  <si>
+    <t>select all column from f</t>
+  </si>
+  <si>
+    <t>e.left
+union
+g</t>
+  </si>
+  <si>
+    <t>Filter tool - (on h)</t>
+  </si>
+  <si>
+    <t>[cpu] = "C" OR [cpu] = "D"</t>
+  </si>
+  <si>
+    <t>Update Transportation Policies</t>
+  </si>
+  <si>
+    <t>Control Parameter FSC</t>
+  </si>
+  <si>
+    <t>Still don't understand what these do</t>
+  </si>
+  <si>
+    <t>Formula tool - (on 9.h)</t>
+  </si>
+  <si>
+    <t>unitcost = IIF([cpu]="C", 0, "Fuel")
+dutyrate_tbf = Null()
+dutyrate = IIF([ocountry]  = "USA" and [dcountry] = "CAN","0.073360291", IIF([ocountry]  = "CAN" and [dcountry] = "USA","0.005860291", Null()))</t>
+  </si>
+  <si>
+    <t>Are these duty rates supposed to be hard coded or user inputs?</t>
+  </si>
+  <si>
+    <t>Select all columns from c except :
+Lane_ID
+HistSCAC
+Carrier_Type
+CostPerLoadAvg</t>
+  </si>
+  <si>
+    <t>Select tool - To be uploaded to Postgres</t>
+  </si>
+  <si>
+    <t>Customer Fulfillment Policies and Replenishment Policies</t>
+  </si>
+  <si>
+    <t>Pull CFP and RP from Postgres</t>
+  </si>
+  <si>
+    <t>Pull Customer Fulfillment Policies - Execute SQL</t>
+  </si>
+  <si>
+    <t>Pull Replenishment Policies - Execute SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula tool - (on 11.a, CFP) </t>
+  </si>
+  <si>
+    <t>cpudedicated = Null()</t>
+  </si>
+  <si>
+    <t>Find within : a.customername
+Find Value : 9.i==True.destinationname
+Append Field(s) to Record : 9.i==True.cpu</t>
+  </si>
+  <si>
+    <t>Formula tool - (on b)</t>
+  </si>
+  <si>
+    <t>Select tool - (on 9.i==True)</t>
+  </si>
+  <si>
+    <t>select the following from i.9==True :
+originname,
+destinationname</t>
+  </si>
+  <si>
+    <t>left : c
+right : d
+---
+join on
+left.customername = right.destinationname and 
+left.sourcename = right.originname
+---
+select left.*,
+right.cpu as Right_cpu</t>
+  </si>
+  <si>
+    <t>cpudedicated = IIF(IsNull([cpu]), Null(), [cpu])</t>
+  </si>
+  <si>
+    <t>union tool</t>
+  </si>
+  <si>
+    <t>e.left
+union
+f</t>
+  </si>
+  <si>
+    <t>Formula tool - (on 11.b, RP)</t>
+  </si>
+  <si>
+    <t>cpudedicated = IIF(IsNull([cpu]), Null(), "N"+[cpu])</t>
+  </si>
+  <si>
+    <t>Find within : i.sourcename
+Find Value : 9.i==True.originname
+Append Field(s) to Record : 9.i==True.cpu</t>
+  </si>
+  <si>
+    <t>Formula tool - (on j)</t>
+  </si>
+  <si>
+    <t>left : k
+right : l
+---
+join on
+left.facilityname = right.destinationname and 
+left.sourcename = right.originname
+---
+select left.*,
+right.cpu as Right_cpu</t>
+  </si>
+  <si>
+    <t>Formula tool - (on m.inner)</t>
+  </si>
+  <si>
+    <t>m.left
+union
+n</t>
+  </si>
+  <si>
+    <t>select all columns from g except :
+cpu, Right_cpu</t>
+  </si>
+  <si>
+    <t>select all columns from o except :
+cpu, Right_cpu</t>
+  </si>
+  <si>
+    <t>Pull Data</t>
+  </si>
+  <si>
+    <t>Pre Union</t>
+  </si>
+  <si>
+    <t>Post Union</t>
+  </si>
+  <si>
+    <t>select case 
+			when Left(mtms.TNumber, 2) = 'IS' then 'Issue' 
+			when Left(mtms.TNumber, 1) = 'R' then 'Return' 
+			when Left(mtms.TNumber, 3) = 'TOR' then 'Transfer' 
+			else '' 
+		end as movetype,
+	case 
+			when Left(mtms.TNumber, 2) = 'IS' then c.Code 
+			when Left(mtms.TNumber, 1) = 'R' then b.Code 
+			else '' 
+		end customer_Loc_Code,
+	case 
+			when Left(mtms.TNumber, 2) = 'IS' then c.Name 
+			when Left(mtms.TNumber, 1) = 'R' then b.Name 
+			else '' 
+		end customer_Loc_Name,
+	Count(IsNull(mtms.RL_T_Actual_Qty_From, 0)) as Load_Count,
+	Avg(IsNull(mtms.RL_T_Actual_Qty_To, 0)) as Average_Cube 
+from mtms mtms 
+	left join tbl_tab_Location b on mtms.RL_T_Location_From = b.IID 
+	left join tbl_tab_Location c on mtms.RL_T_Location_To = c.IID 
+where DateDiff(day, Cast(mtms.RL_T_Date_To as date), Cast(GetDate() as date)) &lt;= 60 
+	and mtms.RL_O_Status &lt;&gt; 5 
+	and Left(mtms.TNumber, 3) &lt;&gt; 'DDT' 
+	and Left(mtms.TNumber, 3) &lt;&gt; 'TOR' 
+	and mtms.RL_T_Date_To is not NULL 
+	and mtms.TMS_CarrierSCAC is not NULL 
+group by case 
+			when Left(mtms.TNumber, 2) = 'IS' then 'Issue' 
+			when Left(mtms.TNumber, 1) = 'R' then 'Return' 
+			when Left(mtms.TNumber, 3) = 'TOR' then 'Transfer' 
+			else '' 
+		end, case 
+			when Left(mtms.TNumber, 2) = 'IS' then c.Code 
+			when Left(mtms.TNumber, 1) = 'R' then b.Code 
+			else '' 
+		end, case 
+			when Left(mtms.TNumber, 2) = 'IS' then c.Name 
+			when Left(mtms.TNumber, 1) = 'R' then b.Name 
+			else '' 
+		end</t>
+  </si>
+  <si>
+    <t>Transportation Policies table in model - Execute SQL</t>
+  </si>
+  <si>
+    <t>select transportationpolicies.* from transportationpolicies</t>
+  </si>
+  <si>
+    <t>Filter tool - (on c)</t>
+  </si>
+  <si>
+    <t>Filter tool - (on d)</t>
+  </si>
+  <si>
+    <t>Filter tool - (on 1.a)</t>
+  </si>
+  <si>
+    <t>Find within : a==True.customer_Loc_Code
+Find Value : 1.b.loccode
+Append Field(s) to Record : 1.b.customername</t>
+  </si>
+  <si>
+    <t>select all columns from b.
+Rename : 
+customername:ModelID</t>
+  </si>
+  <si>
+    <t>Find within : a==False.customer_Loc_Code
+Find Value : 1.c.loccode
+Append Field(s) to Record : 1.c.facilityname</t>
+  </si>
+  <si>
+    <t>select all columns from d.
+Rename : 
+facilityname:ModelID</t>
+  </si>
+  <si>
+    <t>c
+union
+e</t>
+  </si>
+  <si>
+    <t>Formula tool - (on 1.d)</t>
+  </si>
+  <si>
+    <t>averageshipmentsize = "0"</t>
+  </si>
+  <si>
+    <t>Note this field is a string.</t>
+  </si>
+  <si>
+    <t>Find within : 2.g.destinationname
+Find Value : 2.f.ModelID
+Append Field(s) to Record : 2.f.Average_Cube</t>
+  </si>
+  <si>
+    <t>Formula tool - (on c)</t>
+  </si>
+  <si>
+    <t>Formula tool - (on d)</t>
+  </si>
+  <si>
+    <t>Formula tool - (on f)</t>
+  </si>
+  <si>
+    <t>Formula tool - (on g)</t>
+  </si>
+  <si>
+    <t>Formula tool - (on h)</t>
+  </si>
+  <si>
+    <t>Formula tool - (on i)</t>
+  </si>
+  <si>
+    <t>Should the avg pallet quantities be a user input, or stay hard coded?</t>
+  </si>
+  <si>
+    <t>Find within : a.originname
+Find Value : 2.f.ModelID
+Append Field(s) to Record : 2.f.Average_Cube</t>
+  </si>
+  <si>
+    <t>Average_Cube = IIF(IsNull([Average_Cube]), [Average_Cube2], [Average_Cube])</t>
+  </si>
+  <si>
+    <t>averageshipmentsize = IIF(Left([originname], 1) = "D" and left([destinationname],1) = "I", IIF(IsNull([Average_Cube]), 521, [Average_Cube]), IIF(Left([originname], 1) = "R" and left([destinationname],1) = "D", IIF(IsNull([Average_Cube]), 487, [Average_Cube2]), 560))</t>
+  </si>
+  <si>
+    <t>Select all columns from d except :
+Average_Cube, AverageCube2</t>
+  </si>
+  <si>
+    <t>Find within : 1.b.customername
+Find Value : 2.f.ModelID
+Append Field(s) to Record : 2.f.Average_Cube</t>
+  </si>
+  <si>
+    <t>avgloadsz = IIF(IsNull([Average_Cube]), 521, [Average_Cube])</t>
+  </si>
+  <si>
+    <t>Select all columns from g except :
+Average_Cube</t>
+  </si>
+  <si>
+    <t>Find within : 1.c.facilityname
+Find Value : 2.f.ModelID
+Append Field(s) to Record : 2.f.Average_Cube</t>
+  </si>
+  <si>
+    <t>avgloadsz = IIF(Left([facilityname],1) = "R", IIF(IsNull([Average_Cube]), 487, [Average_Cube]), 560)</t>
+  </si>
+  <si>
+    <t>Select all columns from j except :
+Average_Cube</t>
+  </si>
+  <si>
+    <t>Select tool - (on j) - To be uploaded to postgres</t>
+  </si>
+  <si>
+    <t>Select tool - (on g) - To be uploaded to postgres</t>
+  </si>
+  <si>
+    <t>Select tool - (on d) - To be uploaded to postgres</t>
+  </si>
+  <si>
+    <t>SOIP Assumptions</t>
+  </si>
+  <si>
+    <t>Replenishment Policies and Customer Fulfillment Policies</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Read SOIP Assumptions."MultiSource List"</t>
+  </si>
+  <si>
+    <t>Select tool - (on a)</t>
+  </si>
+  <si>
+    <t>Find / Replace tool</t>
+  </si>
+  <si>
+    <t>Find within : b.CustomerCode
+Find Value : c.loccode
+Append Field(s) to Record : c.customername</t>
+  </si>
+  <si>
+    <t>Find within : f.CustomerCode
+Find Value : e==True.loccode
+Append Field(s) to Record : e==True.facilityname</t>
+  </si>
+  <si>
+    <t>Find within : g.DepotCode
+Find Value : e==False.loccode
+Append Field(s) to Record : e==False.facilityname</t>
+  </si>
+  <si>
+    <t>OModelID = IIF([MoveType]="Issue", [facilityname2], [facilityname])
+DModelID = IIF([MoveType]="Issue", [customername], [facilityname2])</t>
+  </si>
+  <si>
+    <t>Select tool - (on i)</t>
+  </si>
+  <si>
+    <t>select all columns except :
+facilityname, facilityname2</t>
+  </si>
+  <si>
+    <t>Filter tool - (on j)</t>
+  </si>
+  <si>
+    <t>[OK to Include SOIP] = "Yes"</t>
+  </si>
+  <si>
+    <t>This logic appears to lead to [Null] values in some OModelID and DModelID columns. 
+CustomerCode = 58965, DepotCode =  63582 (OModelID is null)
+CUstomerCode = 43384, DepotCode = 67007 (DModelID is null)</t>
+  </si>
+  <si>
+    <t>Replenishment policies table in model - Execute SQL</t>
+  </si>
+  <si>
+    <t>multi_source_option = Null()</t>
+  </si>
+  <si>
+    <t>Customer fulfilllment policies in table - Execute SQL</t>
+  </si>
+  <si>
+    <t>1.k==True
+group by OModelID</t>
+  </si>
+  <si>
+    <t>Left([OModelID], 1) = "R"</t>
+  </si>
+  <si>
+    <t>FIlter tool - (on e)</t>
+  </si>
+  <si>
+    <t>Find within : b.sourcename
+Find Value : f==True.OModelID
+Append Field(s) to Record : f==True.OModelID</t>
+  </si>
+  <si>
+    <t>multi_source_option = IIF(!IsEmpty([OModelID]), "N", Null())</t>
+  </si>
+  <si>
+    <t>Select all columns from h except :
+OModelID</t>
+  </si>
+  <si>
+    <t>1.k==True
+group by DModelID</t>
+  </si>
+  <si>
+    <t>Left([DModelID], 1) = "I"</t>
+  </si>
+  <si>
+    <t>Find within : d.customername
+Find Value : k==True.DModelID
+Append Field(s) to Record : k==True.DModelID</t>
+  </si>
+  <si>
+    <t>multi_source_option = IIF(!IsEmpty([DModelID]), "N", Null())</t>
+  </si>
+  <si>
+    <t>Select all columns from h except :
+DModelID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left : i
+right 1.k==True
+---
+on
+left.sourcename = right.OModelID and
+left.facilityname = right.DModelID
+---
+select left.* </t>
+  </si>
+  <si>
+    <t>Formula tool - (on o.inner)</t>
+  </si>
+  <si>
+    <t>multi_source_option = "Y"</t>
+  </si>
+  <si>
+    <t>o.left
+union
+p</t>
+  </si>
+  <si>
+    <t>Filter tool - (on q)</t>
+  </si>
+  <si>
+    <t>[multi_source_option] = "Y"</t>
+  </si>
+  <si>
+    <t>left : n
+right 1.k==True
+---
+on
+left.sourcename = right.OModelID and
+left.customername = right.DModelID
+---
+select left.*  EXCEPT for the following columns:
+optimizationpolicy
+optimizationpolicyvalue
+simulationpolicy
+simulationpolicyvalue
+lotsize
+lotsizeuom
+onlysourcefromsurplus</t>
+  </si>
+  <si>
+    <t>Note: This is trying to select the following columns that do not exist :
+mippolicy
+mippolicyvalue
+simpolicy
+simpolicyvalue
+leadtime
+leadtimeuom</t>
+  </si>
+  <si>
+    <t>Formula tool - (on t.inner)</t>
+  </si>
+  <si>
+    <t>t.left
+union
+o</t>
+  </si>
+  <si>
+    <t>Filter tool - (on v)</t>
+  </si>
+  <si>
+    <t>w==True
+group by
+customername</t>
+  </si>
+  <si>
+    <t>r==True
+group by 
+sourcename</t>
+  </si>
+  <si>
+    <t>left : 1.e==True
+right : 2.s
+---
+on
+left.facilityname = right.sourcename
+---
+select left.*</t>
+  </si>
+  <si>
+    <t>select facilityname as MemberName 
+from a.left</t>
+  </si>
+  <si>
+    <t>ID = Null()
+GroupName = "SplitSource_Distributor_KeepSingleSource"
+GroupType = "Facilities"
+Status = Null()
+Notes = Null()</t>
+  </si>
+  <si>
+    <t>select facilityname as MemberName 
+from a.inner</t>
+  </si>
+  <si>
+    <t>ID = Null()
+GroupName = "SplitSource_Distributor_AllowToMultiSource"
+GroupType = "Facilities"
+Status = Null()
+Notes = Null()</t>
+  </si>
+  <si>
+    <t>left : 1.c
+right : 2.x
+---
+on
+left.customername = right.customername
+---
+select left.*</t>
+  </si>
+  <si>
+    <t>Note: This is trying to select left.region.1 which no longer exists.</t>
+  </si>
+  <si>
+    <t>select customername as MemberName
+from f.left</t>
+  </si>
+  <si>
+    <t>select customername as MemberName
+from f.inner</t>
+  </si>
+  <si>
+    <t>ID = Null()
+GroupName = "SplitSource_Renter_KeepSingleSource"
+GroupType = "Customers"
+Status = Null()
+Notes = Null()</t>
+  </si>
+  <si>
+    <t>ID = Null()
+GroupName = "SplitSource_Renter_AllowToMultiSource"
+GroupType = "Customers"
+Status = Null()
+Notes = Null()</t>
+  </si>
+  <si>
+    <t>Group table in model - Execute SQL</t>
+  </si>
+  <si>
+    <t>select groups.* from groups</t>
+  </si>
+  <si>
+    <t>Filter tool - (on k)</t>
+  </si>
+  <si>
+    <t>[groupname] = "SplitSource_Distributor_KeepSingleSource" OR [groupname] = "SplitSource_Distributor_AllowToMultiSource" OR [groupname] = "SplitSource_Renter_KeepSingleSource" OR [groupname] = "SplitSource_Renter_AllowToMultiSource"</t>
+  </si>
+  <si>
+    <t>Why are we ignoring rows where i==True?</t>
+  </si>
+  <si>
+    <t>c
+union
+e
+union
+h
+union
+j
+union
+l</t>
+  </si>
+  <si>
+    <t>select * from m (except for ID)</t>
+  </si>
+  <si>
+    <t>Record ID tool</t>
+  </si>
+  <si>
+    <t>Create new column named ID</t>
+  </si>
+  <si>
+    <t>Don't want to do this going forward. ID should not be a column present when uploading to a CF Postgres model.</t>
+  </si>
+  <si>
+    <t>Select * from o</t>
+  </si>
+  <si>
+    <t>Select tool - To be uploaded to postgres</t>
+  </si>
+  <si>
+    <t>Union tool - To be uploaded to postgres</t>
+  </si>
+  <si>
+    <t>Replenishment policies table in model</t>
+  </si>
+  <si>
+    <t>Filter tool - FIlter out transfers</t>
+  </si>
+  <si>
+    <t>left([sourcename],1) = "D" AND left([facilityname],1) = "D"</t>
+  </si>
+  <si>
+    <t>status = "Include"</t>
+  </si>
+  <si>
+    <t>Formula tool - set manufacturing lanes</t>
+  </si>
+  <si>
+    <t>status = IIF([odepottype] = "Manufacturing" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Distributor Sort" OR [ddepottype] = "Renter Sort" OR [ddepottype] = "Repair Only" OR [ddepottype] = "Sort Only" ), "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>Formula tool - set FSD lanes</t>
+  </si>
+  <si>
+    <t>Formula tool - set repair only lanes</t>
+  </si>
+  <si>
+    <t>Formula tool - set DO NOT USE lanes</t>
+  </si>
+  <si>
+    <t>Formula tool - set distributor and renter sort lanes</t>
+  </si>
+  <si>
+    <t>Formula tool - set sort only lanes</t>
+  </si>
+  <si>
+    <t>Formula tool - set storage lanes</t>
+  </si>
+  <si>
+    <t>Formula tool - status = "Include" - (on b==True)</t>
+  </si>
+  <si>
+    <t>status = IIF([odepottype] = "Full Service" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE"), "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>status = IIF([odepottype] = "Sort Only" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Sort Only"), "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>status = IIF([odepottype] = "Storage" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Distributor Sort" OR [ddepottype] = "Renter Sort" OR [ddepottype] = "Storage"), "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>status = IIF([odepottype] = "Repair Only" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Distributor Sort" OR [ddepottype] = "Renter Sort"), "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>status = IIF([odepottype] = "DO NOT USE", "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>status = IIF(([odepottype] = "Distributor Sort" OR [odepottype] = "Renter Sort") AND ([ddepottype] != "Full Service"), "Exclude", [status] )</t>
+  </si>
+  <si>
+    <t>j
+union
+b==False</t>
+  </si>
+  <si>
+    <t>Select * from k</t>
+  </si>
+  <si>
+    <t>SOIP Optimization Assumptions."RenterDistSort Preferred Depot"</t>
+  </si>
+  <si>
+    <t>Select * from tab</t>
+  </si>
+  <si>
+    <t>Formula tool - (on a)</t>
+  </si>
+  <si>
+    <t>rentdistsortprefassig = "N"</t>
+  </si>
+  <si>
+    <t>StartsWith([facilityname], "D_")</t>
+  </si>
+  <si>
+    <t>Find within : b.O-Name
+Find Value : e==True.loccode
+Append Field(s) to Record : e==True.facilityname</t>
+  </si>
+  <si>
+    <t>Find within : f.D-Name
+Find Value : e==True.loccode
+Append Field(s) to Record : e==True.facilityname</t>
+  </si>
+  <si>
+    <t>select * from g
+---
+rename :
+facilityname : OModelID
+facilityname2 : DModelID</t>
+  </si>
+  <si>
+    <t>left : d
+right : h
+---
+join on
+left.sourcename = right.OModelID and
+left.facilityname = right.DModelID
+---
+select left.*</t>
+  </si>
+  <si>
+    <t>Formula tool - (on i.inner)</t>
+  </si>
+  <si>
+    <t>rentdistsortprefassig = "Y"</t>
+  </si>
+  <si>
+    <t>left : i.left
+right : h
+---
+join on
+left.sourcename = right.DModelID and
+left.facilityname = right.OModelID
+---
+select left.*</t>
+  </si>
+  <si>
+    <t>k.left 
+union
+j
+union
+l</t>
+  </si>
+  <si>
+    <t>select * from m</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>transportation policies</t>
+  </si>
+  <si>
+    <t>customers
+facilities
+transportation policies</t>
+  </si>
+  <si>
+    <t>replenishment policies
+customer fulfillment policies
+groups</t>
+  </si>
+  <si>
+    <t>replenishment policies</t>
+  </si>
+  <si>
+    <t>warehousing policies</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>production policies</t>
+  </si>
+  <si>
+    <t>production constraints</t>
+  </si>
+  <si>
+    <t>inventory policies</t>
+  </si>
+  <si>
+    <t>inventory constraints</t>
+  </si>
+  <si>
+    <t>Alteryx Workflow</t>
+  </si>
+  <si>
+    <t>015 - Set SOIP Solve Flag</t>
+  </si>
+  <si>
+    <t>017 - Issue and Return Location Details</t>
+  </si>
+  <si>
+    <t>070 - Trans Load Size</t>
+  </si>
+  <si>
+    <t>010 - Depot Costs and Attributes v2</t>
+  </si>
+  <si>
+    <t>020 - Lane Attributes</t>
+  </si>
+  <si>
+    <t>060 - Transportation Rates Historical</t>
+  </si>
+  <si>
+    <t>090 - Flag Multi-Source Options</t>
+  </si>
+  <si>
+    <t>100 - Transfer Matrix Update</t>
+  </si>
+  <si>
+    <t>110 - Renter Dist Sort Pref Depot</t>
+  </si>
+  <si>
+    <t>Action(s) Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set:
+    soipplan = "N"
+    status = "Exclude"
+    notes = "NewAllToAll_Issues"
+---
+Get data from:
+    Excel (SOIP Depot Assignments)
+---
+Update:
+    soipplan = IIF([sourcename] = [RevisedDName], "Y", "N")
+    soip_depot_id = [RevisedDName]
+    status = IIF([sourcename] = [RevisedDName], "Include", "Exclude")
+    notes = IIF([sourcename] = [RevisedDName],"Baseline_Issues","NewAllToAll_Issues")
+    </t>
+  </si>
+  <si>
+    <t>Start with Customer Fulfillment Policies
+---
+Join to Customers
+---
+Update: 
+    country
+    georegion
+    pecoregion
+    pecosubregion
+    zone
+---
+Join to Facilities
+---
+Update: 
+    depot country
+    georegion
+    pecoregion
+    pecosubregion
+    depottype2
+    zone
+---
+Subprocess:
+    Update closest depot flag</t>
+  </si>
+  <si>
+    <t>History - Issues, Returns, and Transfers Costs</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>030 - NPD Percentage Penalty</t>
+  </si>
+  <si>
+    <t>Start with Customer Fulfillment Policies
+---
+Set:
+    multi_source_option = Null()
+---
+Join to SOIP Assumptions."MultiSource List" (Excel) on customername = DModelID
+---
+Update:
+    multi_source_option = IIF(!IsEmpty([DModelID]), "N", Null())
+--- 
+Join to SOIP Assumptions."MultiSource List" (Excel) on 
+    sourcename = OModelID and
+    customername = DModelID
+---
+Update:
+    multi_source_option = "Y" on the inner join only. 
+    Union left and inner join.</t>
+  </si>
+  <si>
+    <t>Start with Customer Fulfillment Policies
+---
+For NON manufacturers...
+Join to SOIP Assumptions."Renter Assumptions" (Excel) on customername = ModelID
+---
+Update:
+    NewPalletCost = 0
+    unitcost = 0
+    unitcost = [NPD %]*[NewPalletCost]</t>
+  </si>
+  <si>
+    <t>Start with Customers table (postgres)
+---
+Join to Customer demand table (DW) on customername
+---
+Update:
+    status = IIF([TotalQty]&gt;0, "Include","Exclude")
+    insoip = IIF([TotalQty]&gt;0, "Y","N")</t>
+  </si>
+  <si>
+    <t>Start with Replenishment policies table (postgres)
+---
+Join to SOIP Depot Assignments."Depot Assignments" (Excel) on
+    customername = Oname and
+    sourcename = RevisedDName
+---
+Update:    (values based on conditions)
+    soipplan = ...
+    soip_depot_id = ...
+    status = ...
+    notes = ...</t>
+  </si>
+  <si>
+    <t>Start with Customer Fulfillment Policies
+---
+Join to Customers to get country, georegion, pecoregion, pecosubregion, zone
+Join to Facilities to get country, depottype, georegion, pecoregion, peco subregion, zone
+Join to Production Constraints (First filter production cnstraints for next 12 months, and calculate Avg quantity per month)
+---
+Update: 
+    depottype
+    oregion
+    dregion
+    ocountry
+    dcountry
+    ozone
+    dzone
+    opecoregion
+    dpecoregion
+    opecosubregion
+    dpecosubregion
+    mileageband
+    monthly_avg
+    monthlypalletband
+---
+Subprocess:
+    Number of Depots
+---
+Join to Number of Depots resulting dataset
+---
+Update:
+    number_of_depots_served
+    nbrdepotsband
+    addtomodel
+---
+Subprocess:
+    Update closest depot flag</t>
+  </si>
+  <si>
+    <t>Start with Transportation Policies
+---
+Join to Facilities to get origin country, origin loccode
+---
+Update:
+    ocountry
+    dcountry
+    oloccode
+    dloccode</t>
+  </si>
+  <si>
+    <t>What is the purpose of this?</t>
+  </si>
+  <si>
+    <t>Start with Customer Fulfillment Policies
+---
+Set:
+    unitcost = 0
+---
+Join to "SOIP Optimization Assumptions"."Depot Assumptions" (Excel) on
+    left.sourcename = right.ModelID
+---
+Update:
+    unitcost = IIF(isnull([Paint Upd]), 0, [Paint Upd])
+    depottype = [Type]</t>
+  </si>
+  <si>
+    <t>Start with Facilities table (postgres)
+---
+Join to Return forecast table (productionconstraints in postgres)
+---
+Update:
+    status = IIF(StartsWith([facilityname], "R_"), IIF([TotalQty]&gt;0, "Include","Exclude"), [status])
+    insoipmodel = IIF([TotalQty]&gt;0, "Y","N")
+    heat_treat_rqmt = "N"
+    heat_treat_rqmt = IIF(IsNull([Heat Treat]), "N", [Heat Treat])
+    depottype = [depottype]
+    closed = [Closed2]
+    status = IIF(left([facilityname],1)="D", IIF([closed]="NO","Include", "Exclude"), [status])
+---
+Sort:
+    by facilityname Asc</t>
+  </si>
+  <si>
+    <t>Start with Warehousing Policies
+---
+Update:
+    inboundhandlingcost = 0
+    outboundhandlingcost = 0
+---
+Join to "SOIP Optimization Assumptions"."Depot Assumptions" on
+    facilityname = ModelID
+---
+Update:
+    inboundhandlingcost = IIF(isnull([Handling In Upd]), 0, [Handling In Upd])+IIF(isnull([Sort Upd]), 0, [Sort Upd])
+    outboundhandlingcost = IIF(isnull([Handling Out Upd]), 0, [Handling Out Upd])</t>
+  </si>
+  <si>
+    <t>Start with Production Policies
+---
+Split into two datasets:
+    a) [bomname] == "BOM_RFU_REPAIR"
+    b) [bomname] &lt;&gt; "BOM_RFU_REPAIR"
+---
+Update:
+    a) unitcost = 0
+---
+Join a) to "SOIP Optimization Assumptions"."Depot Assumptions" on
+    facilityname = ModelID
+---
+Update:
+    a) unitcost = IIF(isnull([Repair Upd]), 0, [Repair Upd])
+    a) depottype = IIF(left([facilityname],1)="D", [Type], [depottype])
+---
+Union:
+    a) union b)
+---
+Join to "SOIP Optimization Assumptions"."Depot Assumptions" on
+    facilityname = ModelID
+----
+Update: 
+    depottype = IIF(left([facilityname],1)="D", [Type], [depottype])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start with: 
+    Production Constraints : pc
+    periods : ps
+--- 
+Filter on
+    a) [notes] == [User.RepairCapacityNotes]
+    b) [notes] &lt;&gt; [User.RepairCapacityNotes]
+---
+Join a) to Periods on periodname
+    Bring in workingdays
+---
+Join to "SIOP Optimization Assumptions"."Depot Assumptions" on
+    left.facilityname = right.ModelID
+---
+Update:
+    constraintvalue = 0
+    constraintvalue = IIF(isnull([Repair / Day]), 0, ToNumber([workingdays])*ToNumber([Repair / Day]))
+---
+Union:
+    above union b)
+</t>
+  </si>
+  <si>
+    <t>Start with Facilities
+---
+Set:
+    fixedstartupcost = 0
+    fixedclosingcost = 0
+    fixedoperatingcost = 0
+---
+Join to "SOIP Optimization Assumptions"."Depot Assumptions" (Excel) on
+    left.facilityname = right.ModelID
+---
+Update: 
+    fixedoperatingcost = IIF(isnull([Fixed Upd]), 0, [Fixed Upd])</t>
+  </si>
+  <si>
+    <t>Start with Inventory Constraints
+---
+Filter into 3 datasets:
+    a) [notes] == [User.MinInventoryNotes]    (NOTE: User.MinInventoryNotes = "MinInventory")
+    b) [notes] &lt;&gt; [User.MinInventoryNotes] AND [User.DepotCapacityNotes] == [User.DepotCapacityNotes]    (NOTE: User.DepotCapacityNotes = "Depot_Capacity")
+    c) [notes] &lt;&gt; [User.MinInventoryNotes] AND [User.DepotCapacityNotes] &lt;&gt; [User.DepotCapacityNotes]    (NOTE: User.DepotCapacityNotes = "Depot_Capacity")
+---
+Join a) with "SOIP Optimization Assumptions"."Depot Assumptions" (Excel) on
+    left.facilityname = right.ModelID
+Join b) with "SOIP Optimization Assumptions"."Depot Assumptions" (Excel) on
+    left.facilityname = right.ModelID
+---
+Update:
+    a) constraintvalue = 0
+    a) constraintvalue = IIF(isnull([Minimum Inv]), 0, [Minimum Inv])
+    b) constraintvalue = 0
+    b) constraintvalue = IIF(isnull([Storage]), 0, [Storage])+IIF(isnull([Yard Space]), 0, [Yard Space])+IIF(isnull([Temp Storage]), 0, [Temp Storage])
+---
+Union:
+    a) union b) union c)    (NOTE: c is always empty).
+---
+Join b) with "SOIP Optimization Assumptions"."Depot Assumptions" (Excel) on
+    left.facilityname = right.ModelID
+---
+Update:
+    depottype = IIF(left([facilityname],1)="D", [Type], [depottype])</t>
+  </si>
+  <si>
+    <t>Start with Inventory Policies
+---
+Filter into:
+    a) [notes] == [User.BeginningInvNotes]    (NOTE:  [User.BeginningInvNotes] = SOIP_BeginningInventory)
+    b) [notes] &lt;&gt; [User.BeginningInvNotes]
+---
+Join a) with "SOIP Optimization Assumptions"."Depot Assumptions" (Excel) on
+    left.facilityname = right.ModelID
+---
+Update:
+    BegInv_RFU = IIF([BegInv_RFU]&lt;0, 0, [BegInv_RFU])
+    BegInv_WIP = IIF([BegInv_WIP]&lt;0, 0, [BegInv_WIP])
+    BegInv_MIX = IIF([BegInv_MIX]&lt;0, 0, [BegInv_MIX])
+    initialinventory = 0
+    initialinventory = IIF([productname]="RFU", IIF(isnull([BegInv_RFU]), 0, [BegInv_RFU]), IIF(isnull([BegInv_WIP]), 0, [BegInv_WIP]))+
+                                        IIF([productname]="RFU", IIF(isnull([BegInv_MIX]), 0, [BegInv_MIX]*(1-[DmgRate])), IIF(isnull([BegInv_MIX]), 0, [BegInv_MIX]*[DmgRate]))
+Union:
+    a) union b)</t>
+  </si>
+  <si>
+    <t>Start with Replenishment Policies
+---
+Join to "SOIP Optimization Assumptions"."Depot Assumptions" on
+    left.facilityname = right.ModelID
+Join to "SOIP Optimization Assumptions"."Depot Assumptions" on
+    left.sourcename = right.ModelID
+---
+Update:
+    odepottype = IIF(left([sourcename],1) = "D", [Type2], [odepottype])
+    ddepottype = IIF(left([facilityname],1) = "D", [Type], [ddepottype])</t>
+  </si>
+  <si>
+    <t>Why isnt period in the group by?
+Why do we have both soipquantity and issuequantity?</t>
+  </si>
+  <si>
+    <t>Start with the following tables:
+    a) Customers (from CF)
+    b) Customer Demand (from CF, issues forecast)
+    c) Locations (from data warehouse)
+---
+Filter:
+    d) = c where [RL Location Type] = "Renter" or IsNull([RL Location Type])
+    e) = b where ToNumber(Right([periodname], 2)) &lt;= 12
+---
+Aggregate:
+    e_agg = e group by customername, sum(quantity) as TotalQty
+---
+Join:
+    f = a join d on a.loccode = d.Code
+---
+Join: g = f join e_agg on f.customername = e_agg.customername
+---
+Update:
+    corpcode = [Corporate Code]
+    corpname = [Corporate Name]
+    soipquantity = [TotalQty]
+    issueqty = [TotalQty]</t>
+  </si>
+  <si>
+    <t>Why filter for return locations before joining to get corporate code?</t>
+  </si>
+  <si>
+    <t>Start with the following tables:
+    a) Facilities (from CF)
+    b) Production Constraints (from CF, returns forecast)
+    c) Locations (from data warehouse)
+---
+Filter:
+    a_filtered = StartsWith([facilityname], "R_")
+    b_filtered = [notes] = "Returns_SOIP" AND ToNumber(Right([periodname], 2)) &lt;= 12
+    c_filtered = [RL Location Type] = "Distributor" OR [RL Location Type] = "Recovery"  OR [RL Location Type] = "NPD"
+---
+Aggregate:
+    b_agg = b_filtered.True group by facilityname. sum(constraintvalue) as TotalQty
+---
+Join:
+    d = a_filtered.True join c_filtered.True on left.loccode = right.Code
+    e = d join b_agg on left.facilityname = right.facilityname
+---
+Update:
+    e.corpcode = [Corporate Code]
+    e.corpname = [Corporate Name]
+    e.returnqty = [TotalQty]
+---
+Union:
+    e union a_filtered.False</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Start with the following datasets:
+    Transportation Policies (CF)
+    Customers (CF)
+    Facilities (CF)
+    Customer Fulfillment Policies (CF)
+    Replenishment Policies (CF)
+    Shipment History (DW)
+    IRT by Lane Type (DW)
+    IRT Costs (DW)
+---
+Subprocesses:
+    Shipment History Preprocessing
+    History - Issues, Returns, and Transfers by Lane Type
+    History - Issues, Returns, and Transfers Costs
+    Create CPU Flag
+---
+Update Transportation Policies (This is done in the Create CPU Flag subprocess)
+Update Customer Fulfillment Policies
+Update Replenishment Policies
+---
+NOTE: These subprocesses are complex enough that I am going to skip it in this document, and figure it out during development. I can't really tell what is happening just from the flowchart.</t>
+  </si>
+  <si>
+    <t>Start with Replenishment Policies
+---
+Filter:
+    a = Replenishment Policies where : left([sourcename],1) = "D" AND left([facilityname],1) = "D"
+---
+Update (on a.True):
+    status = "Include"
+    status = IIF([odepottype] = "Manufacturing" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Distributor Sort" OR [ddepottype] = "Renter Sort" OR [ddepottype] = "Repair Only" OR [ddepottype] = "Sort Only" ), "Exclude", [status] )
+    status = IIF([odepottype] = "Full Service" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE"), "Exclude", [status] )
+    status = IIF([odepottype] = "Sort Only" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Sort Only"), "Exclude", [status] )
+    status = IIF([odepottype] = "Storage" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Distributor Sort" OR [ddepottype] = "Renter Sort" OR [ddepottype] = "Storage"), "Exclude", [status] )
+    status = IIF([odepottype] = "Repair Only" AND ([ddepottype] = "Manufacturing" OR [ddepottype] = "DO NOT USE" OR [ddepottype] = "Distributor Sort" OR [ddepottype] = "Renter Sort"), "Exclude", [status] )
+    status = IIF([odepottype] = "DO NOT USE", "Exclude", [status] )
+    status = IIF(([odepottype] = "Distributor Sort" OR [odepottype] = "Renter Sort") AND ([ddepottype] != "Full Service"), "Exclude", [status] )
+---
+Union:
+   above union a.False</t>
+  </si>
+  <si>
+    <t>I don't understand what this sript is meant to do...
+What is rentdistsortprefassig?
+The original replenishmentpolicies table has 440,511 rows.
+THe new replenishmentploicies table has 440,575 rows. 
+This is because the original dataset has duplicate rows based on the primary key of the table (including status).</t>
+  </si>
+  <si>
+    <t>NOTE: This workflow appears to have bugs. Going to review with Marc and document intended behavior instead of current behavior.</t>
+  </si>
+  <si>
+    <t>Same workflow as Customer Fulfillment Policies</t>
+  </si>
+  <si>
+    <t>Start with Facilities and Customers tables.
+---
+Join to updated Replenishment Policies and Customer Fulfillment Policies (with multi_source_option = Y
+---
+Createnew Group Names for Renters and Distributors based on if multi_source_option = Y (inner join) or multi_source_option = N.
+---
+Take existing Groups table in model.
+Filter on the following and keep only the FASLE dataset: 
+   [groupname] = "SplitSource_Distributor_KeepSingleSource" OR [groupname] = "SplitSource_Distributor_AllowToMultiSource" OR [groupname] = "SplitSource_Renter_KeepSingleSource" OR [groupname] = "SplitSource_Renter_AllowToMultiSource"
+---
+Union the old groups table with the new rows related to multi_source_option.</t>
+  </si>
+  <si>
+    <t>The purpose of this is to create a flag that does not allow the primary depot assignment to be changed for Renter/Dist sorts.</t>
+  </si>
+  <si>
+    <t>What is the second filter for? The condition will never be false.
+UPDATE: It should say [notes]</t>
+  </si>
+  <si>
+    <t>What is the [unitcost] field used for in rows where [bomname] &lt;&gt; "BOM_RFU_REPAIR"? (Looks like it's either 0 or blank.) 
+UPDATE: All rows where bomname is blank is returns, and we aren't including a return cost.
+Why update [depottype] before and after the union?
+UPDATE: Can eliminate the first one.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,8 +3435,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1566,8 +3467,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5A7F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9F89"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1614,11 +3575,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1642,40 +3618,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9F89"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFF5A7F5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2044,13 +4073,375 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E3358B-DCE9-41A9-B8DF-2A9B53B126BC}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>689</v>
+      </c>
+      <c r="D10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>690</v>
+      </c>
+      <c r="D11" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543E843C-44E2-4B22-A3F0-78A006B486F1}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>711</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>679</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD7A76-7E14-49BC-9F7F-CC0D323E4F50}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2060,12 +4451,12 @@
     <col min="3" max="3" width="73.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="85.54296875" customWidth="1"/>
-    <col min="8" max="8" width="46.6328125" customWidth="1"/>
+    <col min="6" max="7" width="28.81640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="85.54296875" customWidth="1"/>
+    <col min="9" max="9" width="46.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
@@ -2085,13 +4476,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -2099,7 +4493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -2107,7 +4501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2127,10 +4521,13 @@
         <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2147,11 +4544,14 @@
         <v>266</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -2159,7 +4559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -2175,8 +4575,11 @@
       <c r="E7" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>54</v>
       </c>
@@ -2184,7 +4587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -2200,8 +4603,11 @@
       <c r="E9" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -2209,7 +4615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2225,11 +4631,14 @@
       <c r="E11" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -2237,7 +4646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -2250,9 +4659,14 @@
       <c r="D13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -2265,9 +4679,14 @@
       <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -2275,7 +4694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -2283,7 +4702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2296,9 +4715,14 @@
       <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -2306,7 +4730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>9</v>
       </c>
@@ -2319,9 +4743,14 @@
       <c r="D19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>10</v>
       </c>
@@ -2334,9 +4763,14 @@
       <c r="D20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -2344,7 +4778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -2357,9 +4791,17 @@
       <c r="D22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -2367,7 +4809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +4817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +4825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2391,7 +4833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>54</v>
       </c>
@@ -2399,7 +4841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>55</v>
       </c>
@@ -2407,7 +4849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -2415,7 +4857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -2423,7 +4865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -2431,7 +4873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -2633,24 +5075,391 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736758DB-432D-43DC-806C-DBD25A95B6E3}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270A4F3-9858-41EF-89AA-91D4D875718C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.90625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.6328125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="65.6328125" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="26" customFormat="1" ht="203" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="26" customFormat="1" ht="333.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="26" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="26" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="27" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="27" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="29" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="30" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="31" customFormat="1" ht="261" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="32" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="33" customFormat="1" ht="348" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="34" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="34" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="34" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="34" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>735</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="34" customFormat="1" ht="290" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="34" customFormat="1" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>767</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="35" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="35" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="36" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>732</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D30" xr:uid="{E270A4F3-9858-41EF-89AA-91D4D875718C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="017 - Issue and Return Location Details"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E49616A-EF6F-49EC-9DA2-E4B17497683E}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3657,11 +6466,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C9A7F-8056-4B55-BD1C-FF48D0F05B92}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4117,12 +6926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066D2980-1350-49EA-B629-4EB5DB48219D}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4345,7 +7154,7 @@
       <c r="B22" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" t="s">
         <v>240</v>
       </c>
       <c r="D22" t="s">
@@ -4356,7 +7165,7 @@
       <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" t="s">
         <v>287</v>
       </c>
       <c r="D23" t="s">
@@ -4367,7 +7176,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="9" t="s">
         <v>271</v>
       </c>
       <c r="D24" t="s">
@@ -4381,7 +7190,7 @@
       <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" t="s">
         <v>273</v>
       </c>
       <c r="D25" t="s">
@@ -4502,18 +7311,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A45E050-E71B-4380-9782-9CB2A1906CE4}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="95.7265625" customWidth="1"/>
     <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4602,13 +7411,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>315</v>
       </c>
@@ -4636,13 +7443,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>319</v>
       </c>
@@ -4692,7 +7497,7 @@
       <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" t="s">
         <v>324</v>
       </c>
       <c r="D18" t="s">
@@ -4703,13 +7508,13 @@
       <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" t="s">
         <v>325</v>
       </c>
       <c r="D19" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4717,67 +7522,67 @@
       <c r="D20" t="s">
         <v>326</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>328</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" t="s">
         <v>329</v>
       </c>
       <c r="D22" t="s">
         <v>330</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" t="s">
         <v>331</v>
       </c>
       <c r="D23" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>333</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" t="s">
         <v>335</v>
       </c>
       <c r="D26" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" t="s">
         <v>228</v>
       </c>
       <c r="D27" t="s">
@@ -4788,7 +7593,7 @@
       <c r="B28" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" t="s">
         <v>187</v>
       </c>
       <c r="D28" t="s">
@@ -4799,7 +7604,7 @@
       <c r="B29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" t="s">
         <v>338</v>
       </c>
       <c r="D29" t="s">
@@ -4810,7 +7615,7 @@
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" t="s">
         <v>231</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -4821,7 +7626,7 @@
       <c r="B31" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" t="s">
         <v>233</v>
       </c>
       <c r="D31" t="s">
@@ -4842,7 +7647,7 @@
       <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" t="s">
         <v>342</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -4853,7 +7658,7 @@
       <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" t="s">
         <v>233</v>
       </c>
       <c r="D35" t="s">
@@ -4874,13 +7679,13 @@
       <c r="B38" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" t="s">
         <v>347</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="9" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4888,7 +7693,7 @@
       <c r="B39" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="8" t="s">
         <v>351</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -4900,7 +7705,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4908,7 +7713,7 @@
       <c r="A41" s="8">
         <v>14</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="7" t="s">
         <v>222</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -4919,7 +7724,7 @@
       <c r="A42" s="1">
         <v>15</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4927,10 +7732,10 @@
       <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4938,13 +7743,13 @@
       <c r="B44" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" t="s">
         <v>359</v>
       </c>
       <c r="D44" t="s">
         <v>354</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4952,67 +7757,67 @@
       <c r="D45" t="s">
         <v>355</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="20"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" t="s">
         <v>358</v>
       </c>
       <c r="D47" t="s">
         <v>356</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" t="s">
         <v>360</v>
       </c>
       <c r="D48" t="s">
         <v>357</v>
       </c>
-      <c r="E48" s="20"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>333</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>334</v>
       </c>
-      <c r="E50" s="20"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" t="s">
         <v>358</v>
       </c>
       <c r="D51" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" t="s">
         <v>240</v>
       </c>
       <c r="D52" t="s">
@@ -5023,7 +7828,7 @@
       <c r="B53" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" t="s">
         <v>362</v>
       </c>
       <c r="D53" t="s">
@@ -5034,7 +7839,7 @@
       <c r="B54" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" t="s">
         <v>187</v>
       </c>
       <c r="D54" t="s">
@@ -5045,7 +7850,7 @@
       <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" t="s">
         <v>231</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -5056,7 +7861,7 @@
       <c r="B56" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" t="s">
         <v>233</v>
       </c>
       <c r="D56" t="s">
@@ -5077,7 +7882,7 @@
       <c r="B59" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" t="s">
         <v>342</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -5088,7 +7893,7 @@
       <c r="B60" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" t="s">
         <v>233</v>
       </c>
       <c r="D60" t="s">
@@ -5109,7 +7914,7 @@
       <c r="B63" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" t="s">
         <v>347</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -5120,7 +7925,7 @@
       <c r="B64" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="8" t="s">
         <v>351</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -5131,7 +7936,7 @@
       <c r="A65" s="1">
         <v>16</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5139,7 +7944,7 @@
       <c r="B66" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" t="s">
         <v>373</v>
       </c>
       <c r="D66" t="s">
@@ -5150,7 +7955,7 @@
       <c r="B67" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" t="s">
         <v>233</v>
       </c>
       <c r="D67" t="s">
@@ -5171,7 +7976,7 @@
       <c r="B70" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" t="s">
         <v>187</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -5182,7 +7987,7 @@
       <c r="B71" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" t="s">
         <v>233</v>
       </c>
       <c r="D71" t="s">
@@ -5203,7 +8008,7 @@
       <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" t="s">
         <v>187</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -5214,7 +8019,7 @@
       <c r="B75" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" t="s">
         <v>236</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -5225,7 +8030,7 @@
       <c r="B76" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -5237,253 +8042,253 @@
         <v>17</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="1" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="22" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E79" s="24"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E80" s="24"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E81" s="24"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E82" s="24"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E83" s="24"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E84" s="24"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="E85" s="24"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="E86" s="24"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="E87" s="24"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" spans="2:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="E89" s="28"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E90" s="28"/>
+      <c r="E90" s="23"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="E91" s="28"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E92" s="28"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="E93" s="28"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E94" s="28"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E95" s="28"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="28"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E97" s="28"/>
+      <c r="E97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5496,16 +8301,2217 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006EE257-EA07-452B-A6D4-4DDDF5ECDC1D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F333EE-53F3-4E6E-9E60-69C64448E149}">
+  <dimension ref="A1:E99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" t="s">
+        <v>479</v>
+      </c>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" t="s">
+        <v>482</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>480</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>481</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C33" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" t="s">
+        <v>485</v>
+      </c>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>493</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>495</v>
+      </c>
+      <c r="D41" t="s">
+        <v>496</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>497</v>
+      </c>
+      <c r="D42" t="s">
+        <v>498</v>
+      </c>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B51" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>512</v>
+      </c>
+      <c r="D53" t="s">
+        <v>513</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>514</v>
+      </c>
+      <c r="D54" t="s">
+        <v>515</v>
+      </c>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>528</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>533</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>537</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>543</v>
+      </c>
+      <c r="E76" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>545</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B79" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>554</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="s">
+        <v>557</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>558</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" t="s">
+        <v>533</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s">
+        <v>562</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>549</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>564</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>567</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>558</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" t="s">
+        <v>569</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>402</v>
+      </c>
+      <c r="C98" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B99" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E14:E37"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E53:E64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E2C992-6BA6-4B1E-BE92-1F54094E6342}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>591</v>
+      </c>
+      <c r="D19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>609</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99BC76D-64B5-4D5F-A0C0-BCB3A903459D}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.7265625" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>620</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>635</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>620</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>635</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>620</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30" t="s">
+        <v>645</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" t="s">
+        <v>680</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C32" t="s">
+        <v>648</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>613</v>
+      </c>
+      <c r="C35" t="s">
+        <v>652</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" t="s">
+        <v>680</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>592</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>594</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>596</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>668</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>670</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" t="s">
+        <v>675</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E54" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Original File Explanation.xlsx
+++ b/docs/Original File Explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D51E99-18AD-48F8-A359-56B778C038DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EA19B-8DA7-4BF5-B486-B5986311E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
+    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
   </bookViews>
   <sheets>
     <sheet name="High Level" sheetId="2" r:id="rId1"/>
@@ -3634,18 +3634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3691,6 +3679,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4440,7 +4440,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
@@ -5077,378 +5077,366 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270A4F3-9858-41EF-89AA-91D4D875718C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.6328125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="65.6328125" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="25.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.6328125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="65.6328125" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" s="22" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="34" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="26" customFormat="1" ht="203" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:4" s="22" customFormat="1" ht="203" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" ht="333.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:4" s="22" customFormat="1" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="26" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:4" s="22" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:4" s="22" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:4" s="22" customFormat="1" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="34" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="27" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:4" s="23" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="35" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="27" customFormat="1" ht="319" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:4" s="23" customFormat="1" ht="319" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>761</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="35" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:4" s="24" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:4" s="24" customFormat="1" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="348" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:4" s="24" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="36" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="29" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:4" s="25" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="44" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="30" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:4" s="26" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="42" t="s">
         <v>757</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="42" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" ht="261" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:4" s="27" customFormat="1" ht="261" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
         <v>726</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="43" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="32" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:4" s="28" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="33" customFormat="1" ht="348" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:4" s="29" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>724</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>732</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="40" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="34" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:4" s="30" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="34" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:4" s="30" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="34" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:4" s="30" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="37" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="34" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:4" s="30" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="37" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="30" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="34" customFormat="1" ht="290" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:4" s="30" customFormat="1" ht="290" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="37" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="34" customFormat="1" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:4" s="30" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="37" t="s">
         <v>767</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="37" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="35" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:4" s="31" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="31" t="s">
         <v>733</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="31" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="35" customFormat="1" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:4" s="31" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="38" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="31" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="36" customFormat="1" ht="174" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:4" s="32" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
         <v>722</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="32" t="s">
         <v>732</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="39" t="s">
         <v>753</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D30" xr:uid="{E270A4F3-9858-41EF-89AA-91D4D875718C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="017 - Issue and Return Location Details"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D30" xr:uid="{E270A4F3-9858-41EF-89AA-91D4D875718C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7514,7 +7502,7 @@
       <c r="D19" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="45" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7522,13 +7510,13 @@
       <c r="D20" t="s">
         <v>326</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>328</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -7540,7 +7528,7 @@
       <c r="D22" t="s">
         <v>330</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -7552,19 +7540,19 @@
       <c r="D23" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>333</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -7576,7 +7564,7 @@
       <c r="D26" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -7749,7 +7737,7 @@
       <c r="D44" t="s">
         <v>354</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="45" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7757,13 +7745,13 @@
       <c r="D45" t="s">
         <v>355</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
@@ -7775,7 +7763,7 @@
       <c r="D47" t="s">
         <v>356</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="45"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
@@ -7787,19 +7775,19 @@
       <c r="D48" t="s">
         <v>357</v>
       </c>
-      <c r="E48" s="21"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>333</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="45"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>334</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
@@ -7811,7 +7799,7 @@
       <c r="D51" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
@@ -8056,7 +8044,7 @@
       <c r="D78" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="46" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8070,7 +8058,7 @@
       <c r="D79" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E79" s="22"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
@@ -8082,7 +8070,7 @@
       <c r="D80" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E80" s="22"/>
+      <c r="E80" s="46"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
@@ -8094,7 +8082,7 @@
       <c r="D81" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E81" s="22"/>
+      <c r="E81" s="46"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
@@ -8106,7 +8094,7 @@
       <c r="D82" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E82" s="22"/>
+      <c r="E82" s="46"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="13" t="s">
@@ -8118,7 +8106,7 @@
       <c r="D83" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E83" s="22"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
@@ -8130,7 +8118,7 @@
       <c r="D84" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E84" s="22"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
@@ -8142,7 +8130,7 @@
       <c r="D85" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="E85" s="22"/>
+      <c r="E85" s="46"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="13" t="s">
@@ -8154,7 +8142,7 @@
       <c r="D86" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="E86" s="22"/>
+      <c r="E86" s="46"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
@@ -8166,7 +8154,7 @@
       <c r="D87" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="46"/>
     </row>
     <row r="88" spans="2:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -8178,7 +8166,7 @@
       <c r="D88" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="47" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8192,7 +8180,7 @@
       <c r="D89" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="E89" s="23"/>
+      <c r="E89" s="47"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -8204,7 +8192,7 @@
       <c r="D90" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="47"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -8216,7 +8204,7 @@
       <c r="D91" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="47"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -8228,7 +8216,7 @@
       <c r="D92" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="47"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -8240,7 +8228,7 @@
       <c r="D93" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="47"/>
     </row>
     <row r="94" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -8252,7 +8240,7 @@
       <c r="D94" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="47"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -8264,7 +8252,7 @@
       <c r="D95" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="47"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -8276,7 +8264,7 @@
       <c r="D96" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="47"/>
     </row>
     <row r="97" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="17" t="s">
@@ -8288,7 +8276,7 @@
       <c r="D97" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E97" s="23"/>
+      <c r="E97" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8650,7 +8638,7 @@
       <c r="D14" t="s">
         <v>464</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="45" t="s">
         <v>475</v>
       </c>
     </row>
@@ -8658,13 +8646,13 @@
       <c r="D15" t="s">
         <v>465</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>466</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -8676,19 +8664,19 @@
       <c r="D17" t="s">
         <v>467</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>468</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>469</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="2:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -8700,7 +8688,7 @@
       <c r="D20" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
@@ -8712,7 +8700,7 @@
       <c r="D21" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -8724,19 +8712,19 @@
       <c r="D22" t="s">
         <v>476</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>477</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>478</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
@@ -8748,19 +8736,19 @@
       <c r="D25" t="s">
         <v>479</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>480</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>481</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -8772,7 +8760,7 @@
       <c r="D28" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
@@ -8784,7 +8772,7 @@
       <c r="D29" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
@@ -8796,19 +8784,19 @@
       <c r="D30" t="s">
         <v>484</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>480</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>481</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -8820,19 +8808,19 @@
       <c r="D33" t="s">
         <v>485</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>480</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="45"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>481</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -8844,7 +8832,7 @@
       <c r="D36" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E36" s="21"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
@@ -8856,7 +8844,7 @@
       <c r="D37" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="45"/>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -8901,7 +8889,7 @@
       <c r="D41" t="s">
         <v>496</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="48" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8915,7 +8903,7 @@
       <c r="D42" t="s">
         <v>498</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="48"/>
     </row>
     <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
@@ -8927,7 +8915,7 @@
       <c r="D43" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="48"/>
     </row>
     <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
@@ -9039,7 +9027,7 @@
       <c r="D53" t="s">
         <v>513</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="45" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9053,7 +9041,7 @@
       <c r="D54" t="s">
         <v>515</v>
       </c>
-      <c r="E54" s="21"/>
+      <c r="E54" s="45"/>
     </row>
     <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
@@ -9065,7 +9053,7 @@
       <c r="D55" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E55" s="21"/>
+      <c r="E55" s="45"/>
     </row>
     <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
@@ -9077,7 +9065,7 @@
       <c r="D56" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="45"/>
     </row>
     <row r="57" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
@@ -9089,7 +9077,7 @@
       <c r="D57" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E57" s="21"/>
+      <c r="E57" s="45"/>
     </row>
     <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
@@ -9101,7 +9089,7 @@
       <c r="D58" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="45"/>
     </row>
     <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
@@ -9113,7 +9101,7 @@
       <c r="D59" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E59" s="21"/>
+      <c r="E59" s="45"/>
     </row>
     <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
@@ -9125,7 +9113,7 @@
       <c r="D60" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E60" s="21"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
@@ -9137,7 +9125,7 @@
       <c r="D61" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="E61" s="21"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
@@ -9149,7 +9137,7 @@
       <c r="D62" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E62" s="21"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
@@ -9161,7 +9149,7 @@
       <c r="D63" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E63" s="21"/>
+      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
@@ -9173,7 +9161,7 @@
       <c r="D64" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E64" s="21"/>
+      <c r="E64" s="45"/>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">

--- a/docs/Original File Explanation.xlsx
+++ b/docs/Original File Explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EA19B-8DA7-4BF5-B486-B5986311E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BB24EC-AE01-4442-8874-262BD228BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
+    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
   </bookViews>
   <sheets>
     <sheet name="High Level" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,13 @@
     <sheet name="CF Tables Altered" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'010-Depot Costs...'!$A$1:$E$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'015 - Set SOIP Solve Flag'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'017 - Issue and Return...'!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'020 - Lane Attributes'!$A$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'060 - Transportation Rates Hist'!$A$1:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'070 - Trans Load Size'!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'090 - Flag Multi Source'!$A$1:$E$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'CF Tables Altered'!$A$1:$D$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Specific Files'!$B$1:$F$53</definedName>
   </definedNames>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="774">
   <si>
     <t>Type</t>
   </si>
@@ -3413,6 +3420,9 @@
 UPDATE: All rows where bomname is blank is returns, and we aren't including a return cost.
 Why update [depottype] before and after the union?
 UPDATE: Can eliminate the first one.</t>
+  </si>
+  <si>
+    <t>This looks back 60 days. Other SQL Queries look back 90 days? (See Transportation Rates Hist)</t>
   </si>
 </sst>
 </file>
@@ -3594,7 +3604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3691,6 +3701,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4247,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543E843C-44E2-4B22-A3F0-78A006B486F1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5080,8 +5094,8 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5250,7 +5264,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="25" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="25" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>723</v>
       </c>
@@ -5275,7 +5289,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" ht="261" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="27" customFormat="1" ht="290" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>726</v>
       </c>
@@ -5344,7 +5358,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="30" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="30" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>721</v>
       </c>
@@ -5366,7 +5380,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="30" customFormat="1" ht="290" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="30" customFormat="1" ht="348" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>721</v>
       </c>
@@ -5377,7 +5391,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="30" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="30" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>721</v>
       </c>
@@ -5405,7 +5419,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="31" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="31" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>718</v>
       </c>
@@ -5444,10 +5458,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E49616A-EF6F-49EC-9DA2-E4B17497683E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5474,7 +5489,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5483,7 +5498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5492,7 +5507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5501,7 +5516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5520,7 +5535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>104</v>
       </c>
@@ -5531,12 +5546,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>89</v>
       </c>
@@ -5544,7 +5559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>105</v>
       </c>
@@ -5555,17 +5570,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>106</v>
       </c>
@@ -5576,7 +5591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -5588,7 +5603,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D15" s="9" t="s">
         <v>219</v>
       </c>
@@ -5596,7 +5611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>97</v>
       </c>
@@ -5604,17 +5619,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>107</v>
       </c>
@@ -5622,7 +5637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>130</v>
       </c>
@@ -5630,7 +5645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -5649,7 +5664,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>104</v>
       </c>
@@ -5663,7 +5678,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" s="9" t="s">
         <v>113</v>
       </c>
@@ -5671,7 +5686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>105</v>
       </c>
@@ -5682,17 +5697,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>106</v>
       </c>
@@ -5703,12 +5719,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D30" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>108</v>
       </c>
@@ -5719,7 +5735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -5738,7 +5754,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>104</v>
       </c>
@@ -5749,12 +5765,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>105</v>
       </c>
@@ -5765,7 +5781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>106</v>
       </c>
@@ -5776,17 +5792,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -5797,7 +5813,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>107</v>
       </c>
@@ -5808,7 +5824,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>130</v>
       </c>
@@ -5819,7 +5835,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>141</v>
       </c>
@@ -5830,7 +5846,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>110</v>
       </c>
@@ -5841,17 +5857,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>148</v>
       </c>
@@ -5866,7 +5882,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>104</v>
       </c>
@@ -5896,7 +5912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>105</v>
       </c>
@@ -5907,17 +5923,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>106</v>
       </c>
@@ -5928,7 +5944,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>108</v>
       </c>
@@ -5939,7 +5955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>107</v>
       </c>
@@ -5950,7 +5966,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -5980,7 +5996,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>105</v>
       </c>
@@ -5988,7 +6004,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>106</v>
       </c>
@@ -5999,17 +6015,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>108</v>
       </c>
@@ -6020,17 +6036,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>107</v>
       </c>
@@ -6041,12 +6057,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>130</v>
       </c>
@@ -6057,7 +6073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
         <v>141</v>
       </c>
@@ -6068,7 +6084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -6087,7 +6103,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>104</v>
       </c>
@@ -6098,7 +6114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>105</v>
       </c>
@@ -6109,7 +6125,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>106</v>
       </c>
@@ -6120,17 +6136,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D76" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>108</v>
       </c>
@@ -6141,12 +6157,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>107</v>
       </c>
@@ -6157,17 +6173,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>130</v>
       </c>
@@ -6178,12 +6194,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D84" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>141</v>
       </c>
@@ -6194,7 +6210,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>110</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>148</v>
       </c>
@@ -6216,17 +6232,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>190</v>
       </c>
@@ -6237,7 +6253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="8" t="s">
         <v>191</v>
       </c>
@@ -6248,7 +6264,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>10</v>
       </c>
@@ -6267,7 +6283,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>104</v>
       </c>
@@ -6278,7 +6294,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>105</v>
       </c>
@@ -6289,17 +6305,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>106</v>
       </c>
@@ -6310,17 +6326,17 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D99" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D100" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>108</v>
       </c>
@@ -6331,12 +6347,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D102" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>107</v>
       </c>
@@ -6347,7 +6363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="8" t="s">
         <v>130</v>
       </c>
@@ -6358,7 +6374,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>11</v>
       </c>
@@ -6377,7 +6393,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>104</v>
       </c>
@@ -6388,17 +6404,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D109" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>105</v>
       </c>
@@ -6409,17 +6425,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>106</v>
       </c>
@@ -6430,12 +6446,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D114" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="8" t="s">
         <v>108</v>
       </c>
@@ -6446,20 +6462,29 @@
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E117" xr:uid="{6E49616A-EF6F-49EC-9DA2-E4B17497683E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Execute the following SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C9A7F-8056-4B55-BD1C-FF48D0F05B92}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6487,7 +6512,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6496,7 +6521,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6511,7 +6536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6541,7 +6566,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>105</v>
       </c>
@@ -6552,7 +6577,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>106</v>
       </c>
@@ -6563,7 +6588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -6574,17 +6599,17 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>107</v>
       </c>
@@ -6595,7 +6620,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>130</v>
       </c>
@@ -6606,7 +6631,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -6636,7 +6661,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -6647,7 +6672,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>106</v>
       </c>
@@ -6658,7 +6683,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>108</v>
       </c>
@@ -6669,7 +6694,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>107</v>
       </c>
@@ -6680,17 +6705,17 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>130</v>
       </c>
@@ -6701,7 +6726,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>141</v>
       </c>
@@ -6712,7 +6737,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -6720,7 +6745,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -6729,7 +6754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>7</v>
       </c>
@@ -6738,7 +6763,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -6757,7 +6782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>104</v>
       </c>
@@ -6768,7 +6793,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -6779,7 +6804,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -6790,7 +6815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>108</v>
       </c>
@@ -6801,7 +6826,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>107</v>
       </c>
@@ -6812,7 +6837,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>130</v>
       </c>
@@ -6823,7 +6848,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -6842,7 +6867,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>104</v>
       </c>
@@ -6853,7 +6878,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>105</v>
       </c>
@@ -6864,7 +6889,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>106</v>
       </c>
@@ -6875,7 +6900,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>108</v>
       </c>
@@ -6886,7 +6911,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>107</v>
       </c>
@@ -6897,7 +6922,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
         <v>130</v>
       </c>
@@ -6909,6 +6934,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E43" xr:uid="{874C9A7F-8056-4B55-BD1C-FF48D0F05B92}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Customer demand - Execute the following SQL"/>
+        <filter val="Customer fulfillment policies in model - Execute the following SQL"/>
+        <filter val="Customer table in model - Execute the following SQL"/>
+        <filter val="Facilities table in model - Execute the following SQL"/>
+        <filter val="Replenishment policies table in model - Execute the following SQL"/>
+        <filter val="Return forecast - Execute the following SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6916,10 +6953,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066D2980-1350-49EA-B629-4EB5DB48219D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6954,14 +6992,14 @@
       <c r="C2" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="49" t="s">
         <v>268</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6980,7 +7018,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>104</v>
       </c>
@@ -6991,7 +7029,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>105</v>
       </c>
@@ -7002,7 +7040,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>106</v>
       </c>
@@ -7013,17 +7051,17 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>108</v>
       </c>
@@ -7034,7 +7072,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -7045,7 +7083,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>130</v>
       </c>
@@ -7056,7 +7094,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>141</v>
       </c>
@@ -7067,17 +7105,17 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>110</v>
       </c>
@@ -7088,7 +7126,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>148</v>
       </c>
@@ -7099,7 +7137,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -7108,7 +7146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -7119,7 +7157,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -7127,7 +7165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -7149,7 +7187,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>105</v>
       </c>
@@ -7160,7 +7198,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>106</v>
       </c>
@@ -7174,7 +7212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -7185,17 +7223,17 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -7206,7 +7244,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>130</v>
       </c>
@@ -7217,7 +7255,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>141</v>
       </c>
@@ -7228,7 +7266,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>110</v>
       </c>
@@ -7239,17 +7277,17 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>148</v>
       </c>
@@ -7260,7 +7298,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>190</v>
       </c>
@@ -7271,7 +7309,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>191</v>
       </c>
@@ -7282,7 +7320,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>304</v>
       </c>
@@ -7294,6 +7332,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E37" xr:uid="{066D2980-1350-49EA-B629-4EB5DB48219D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Customer table in model - Execute the following SQL"/>
+        <filter val="Location table in data warehouse - Execute the following SQL"/>
+        <filter val="Return forecast - Execute the following SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7301,10 +7348,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A45E050-E71B-4380-9782-9CB2A1906CE4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7339,11 +7387,11 @@
       <c r="C2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="50" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7354,7 +7402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7365,7 +7413,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7376,7 +7424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7387,7 +7435,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7398,17 +7446,17 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7419,7 +7467,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7430,17 +7478,17 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -7451,7 +7499,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -7462,7 +7510,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -7473,7 +7521,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -7492,7 +7540,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>104</v>
       </c>
@@ -7506,19 +7554,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>326</v>
       </c>
       <c r="E20" s="45"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>328</v>
       </c>
       <c r="E21" s="45"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>105</v>
       </c>
@@ -7530,7 +7578,7 @@
       </c>
       <c r="E22" s="45"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>106</v>
       </c>
@@ -7542,19 +7590,19 @@
       </c>
       <c r="E23" s="45"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>333</v>
       </c>
       <c r="E24" s="45"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>334</v>
       </c>
       <c r="E25" s="45"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>108</v>
       </c>
@@ -7577,7 +7625,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>130</v>
       </c>
@@ -7588,7 +7636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>141</v>
       </c>
@@ -7599,7 +7647,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>110</v>
       </c>
@@ -7610,7 +7658,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>148</v>
       </c>
@@ -7621,17 +7669,17 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="261" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>190</v>
       </c>
@@ -7642,7 +7690,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>191</v>
       </c>
@@ -7653,17 +7701,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>304</v>
       </c>
@@ -7677,7 +7725,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>350</v>
       </c>
@@ -7688,7 +7736,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -7697,7 +7745,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>14</v>
       </c>
@@ -7708,7 +7756,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -7727,7 +7775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>104</v>
       </c>
@@ -7741,19 +7789,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>355</v>
       </c>
       <c r="E45" s="45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>334</v>
       </c>
       <c r="E46" s="45"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>105</v>
       </c>
@@ -7765,7 +7813,7 @@
       </c>
       <c r="E47" s="45"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -7777,19 +7825,19 @@
       </c>
       <c r="E48" s="45"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>333</v>
       </c>
       <c r="E49" s="45"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>334</v>
       </c>
       <c r="E50" s="45"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>108</v>
       </c>
@@ -7812,7 +7860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>130</v>
       </c>
@@ -7823,7 +7871,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>141</v>
       </c>
@@ -7834,7 +7882,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>110</v>
       </c>
@@ -7845,7 +7893,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>148</v>
       </c>
@@ -7856,17 +7904,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>190</v>
       </c>
@@ -7877,7 +7925,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>191</v>
       </c>
@@ -7888,17 +7936,17 @@
         <v>370</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>304</v>
       </c>
@@ -7909,7 +7957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>350</v>
       </c>
@@ -7920,7 +7968,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>16</v>
       </c>
@@ -7939,7 +7987,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>104</v>
       </c>
@@ -7950,17 +7998,17 @@
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>105</v>
       </c>
@@ -7971,7 +8019,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>106</v>
       </c>
@@ -7982,17 +8030,17 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>108</v>
       </c>
@@ -8003,7 +8051,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>107</v>
       </c>
@@ -8014,7 +8062,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
         <v>130</v>
       </c>
@@ -8025,7 +8073,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>17</v>
       </c>
@@ -8034,7 +8082,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
         <v>103</v>
       </c>
@@ -8048,7 +8096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
         <v>104</v>
       </c>
@@ -8060,7 +8108,7 @@
       </c>
       <c r="E79" s="46"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
         <v>105</v>
       </c>
@@ -8072,7 +8120,7 @@
       </c>
       <c r="E80" s="46"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
         <v>106</v>
       </c>
@@ -8084,7 +8132,7 @@
       </c>
       <c r="E81" s="46"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
         <v>108</v>
       </c>
@@ -8096,7 +8144,7 @@
       </c>
       <c r="E82" s="46"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="13" t="s">
         <v>107</v>
       </c>
@@ -8108,7 +8156,7 @@
       </c>
       <c r="E83" s="46"/>
     </row>
-    <row r="84" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
         <v>130</v>
       </c>
@@ -8120,7 +8168,7 @@
       </c>
       <c r="E84" s="46"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
         <v>141</v>
       </c>
@@ -8132,7 +8180,7 @@
       </c>
       <c r="E85" s="46"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="13" t="s">
         <v>110</v>
       </c>
@@ -8144,7 +8192,7 @@
       </c>
       <c r="E86" s="46"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
         <v>148</v>
       </c>
@@ -8156,7 +8204,7 @@
       </c>
       <c r="E87" s="46"/>
     </row>
-    <row r="88" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>190</v>
       </c>
@@ -8170,7 +8218,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>191</v>
       </c>
@@ -8182,7 +8230,7 @@
       </c>
       <c r="E89" s="47"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>304</v>
       </c>
@@ -8194,7 +8242,7 @@
       </c>
       <c r="E90" s="47"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>350</v>
       </c>
@@ -8206,7 +8254,7 @@
       </c>
       <c r="E91" s="47"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>402</v>
       </c>
@@ -8218,7 +8266,7 @@
       </c>
       <c r="E92" s="47"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>403</v>
       </c>
@@ -8230,7 +8278,7 @@
       </c>
       <c r="E93" s="47"/>
     </row>
-    <row r="94" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>404</v>
       </c>
@@ -8242,7 +8290,7 @@
       </c>
       <c r="E94" s="47"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>405</v>
       </c>
@@ -8254,7 +8302,7 @@
       </c>
       <c r="E95" s="47"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>406</v>
       </c>
@@ -8266,7 +8314,7 @@
       </c>
       <c r="E96" s="47"/>
     </row>
-    <row r="97" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="17" t="s">
         <v>407</v>
       </c>
@@ -8279,6 +8327,18 @@
       <c r="E97" s="47"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E97" xr:uid="{6A45E050-E71B-4380-9782-9CB2A1906CE4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Customer demand - Execute the following SQL"/>
+        <filter val="Customer fulfillment policies table in model - Execute the following SQL"/>
+        <filter val="Issues from Data Warehouse - Execute the following SQL"/>
+        <filter val="Replenishment policies table in model - Execute the following SQL"/>
+        <filter val="Return forecast - Execute the following SQL"/>
+        <filter val="transportation policies table in model - Execute the following SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="E19:E26"/>
     <mergeCell ref="E44:E51"/>
@@ -8294,7 +8354,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8465,10 +8525,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F333EE-53F3-4E6E-9E60-69C64448E149}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8507,7 +8568,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -8525,7 +8586,7 @@
       <c r="C4" t="s">
         <v>451</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="50" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8551,7 +8612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8559,7 +8620,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>103</v>
       </c>
@@ -8570,7 +8631,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>104</v>
       </c>
@@ -8581,7 +8642,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>105</v>
       </c>
@@ -8592,7 +8653,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>106</v>
       </c>
@@ -8606,7 +8667,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>108</v>
       </c>
@@ -8617,7 +8678,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>107</v>
       </c>
@@ -8628,7 +8689,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>130</v>
       </c>
@@ -8642,19 +8703,19 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>465</v>
       </c>
       <c r="E15" s="45"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>466</v>
       </c>
       <c r="E16" s="45"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -8666,19 +8727,19 @@
       </c>
       <c r="E17" s="45"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>468</v>
       </c>
       <c r="E18" s="45"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>469</v>
       </c>
       <c r="E19" s="45"/>
     </row>
-    <row r="20" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>110</v>
       </c>
@@ -8690,7 +8751,7 @@
       </c>
       <c r="E20" s="45"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -8702,7 +8763,7 @@
       </c>
       <c r="E21" s="45"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>190</v>
       </c>
@@ -8714,19 +8775,19 @@
       </c>
       <c r="E22" s="45"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>477</v>
       </c>
       <c r="E23" s="45"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>478</v>
       </c>
       <c r="E24" s="45"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -8738,19 +8799,19 @@
       </c>
       <c r="E25" s="45"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>480</v>
       </c>
       <c r="E26" s="45"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>481</v>
       </c>
       <c r="E27" s="45"/>
     </row>
-    <row r="28" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>304</v>
       </c>
@@ -8762,7 +8823,7 @@
       </c>
       <c r="E28" s="45"/>
     </row>
-    <row r="29" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>350</v>
       </c>
@@ -8774,7 +8835,7 @@
       </c>
       <c r="E29" s="45"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>402</v>
       </c>
@@ -8786,19 +8847,19 @@
       </c>
       <c r="E30" s="45"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>480</v>
       </c>
       <c r="E31" s="45"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>481</v>
       </c>
       <c r="E32" s="45"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>403</v>
       </c>
@@ -8810,19 +8871,19 @@
       </c>
       <c r="E33" s="45"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>480</v>
       </c>
       <c r="E34" s="45"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>481</v>
       </c>
       <c r="E35" s="45"/>
     </row>
-    <row r="36" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>404</v>
       </c>
@@ -8834,7 +8895,7 @@
       </c>
       <c r="E36" s="45"/>
     </row>
-    <row r="37" spans="1:5" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="8" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>405</v>
       </c>
@@ -8846,7 +8907,7 @@
       </c>
       <c r="E37" s="45"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -8862,12 +8923,12 @@
       <c r="C39" t="s">
         <v>491</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="50" t="s">
         <v>492</v>
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>104</v>
       </c>
@@ -8879,7 +8940,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>105</v>
       </c>
@@ -8893,7 +8954,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>106</v>
       </c>
@@ -8905,7 +8966,7 @@
       </c>
       <c r="E42" s="48"/>
     </row>
-    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>108</v>
       </c>
@@ -8917,7 +8978,7 @@
       </c>
       <c r="E43" s="48"/>
     </row>
-    <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>107</v>
       </c>
@@ -8928,7 +8989,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>130</v>
       </c>
@@ -8939,7 +9000,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>141</v>
       </c>
@@ -8950,7 +9011,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>110</v>
       </c>
@@ -8961,7 +9022,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>148</v>
       </c>
@@ -8972,7 +9033,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>190</v>
       </c>
@@ -8983,7 +9044,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>191</v>
       </c>
@@ -8997,7 +9058,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="8" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
         <v>304</v>
       </c>
@@ -9008,7 +9069,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -9017,7 +9078,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>103</v>
       </c>
@@ -9031,7 +9092,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>104</v>
       </c>
@@ -9043,7 +9104,7 @@
       </c>
       <c r="E54" s="45"/>
     </row>
-    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>105</v>
       </c>
@@ -9055,7 +9116,7 @@
       </c>
       <c r="E55" s="45"/>
     </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>106</v>
       </c>
@@ -9067,7 +9128,7 @@
       </c>
       <c r="E56" s="45"/>
     </row>
-    <row r="57" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>108</v>
       </c>
@@ -9079,7 +9140,7 @@
       </c>
       <c r="E57" s="45"/>
     </row>
-    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>107</v>
       </c>
@@ -9091,7 +9152,7 @@
       </c>
       <c r="E58" s="45"/>
     </row>
-    <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>130</v>
       </c>
@@ -9103,7 +9164,7 @@
       </c>
       <c r="E59" s="45"/>
     </row>
-    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>141</v>
       </c>
@@ -9115,7 +9176,7 @@
       </c>
       <c r="E60" s="45"/>
     </row>
-    <row r="61" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>110</v>
       </c>
@@ -9127,7 +9188,7 @@
       </c>
       <c r="E61" s="45"/>
     </row>
-    <row r="62" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>148</v>
       </c>
@@ -9139,7 +9200,7 @@
       </c>
       <c r="E62" s="45"/>
     </row>
-    <row r="63" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>190</v>
       </c>
@@ -9151,7 +9212,7 @@
       </c>
       <c r="E63" s="45"/>
     </row>
-    <row r="64" spans="1:5" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>191</v>
       </c>
@@ -9163,7 +9224,7 @@
       </c>
       <c r="E64" s="45"/>
     </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>9</v>
       </c>
@@ -9171,7 +9232,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>103</v>
       </c>
@@ -9182,7 +9243,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>104</v>
       </c>
@@ -9193,7 +9254,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>105</v>
       </c>
@@ -9204,7 +9265,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>106</v>
       </c>
@@ -9215,7 +9276,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>108</v>
       </c>
@@ -9229,7 +9290,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>107</v>
       </c>
@@ -9243,7 +9304,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>130</v>
       </c>
@@ -9254,7 +9315,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>141</v>
       </c>
@@ -9265,7 +9326,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
         <v>110</v>
       </c>
@@ -9276,7 +9337,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>10</v>
       </c>
@@ -9284,7 +9345,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>103</v>
       </c>
@@ -9295,7 +9356,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -9303,7 +9364,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>105</v>
       </c>
@@ -9317,7 +9378,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="8" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>106</v>
       </c>
@@ -9328,7 +9389,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>11</v>
       </c>
@@ -9360,7 +9421,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>12</v>
       </c>
@@ -9369,7 +9430,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>103</v>
       </c>
@@ -9380,7 +9441,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>104</v>
       </c>
@@ -9391,7 +9452,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>105</v>
       </c>
@@ -9402,7 +9463,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>106</v>
       </c>
@@ -9413,7 +9474,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>108</v>
       </c>
@@ -9424,7 +9485,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>107</v>
       </c>
@@ -9435,7 +9496,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>130</v>
       </c>
@@ -9446,7 +9507,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>141</v>
       </c>
@@ -9457,7 +9518,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>110</v>
       </c>
@@ -9468,7 +9529,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>148</v>
       </c>
@@ -9479,7 +9540,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>190</v>
       </c>
@@ -9490,7 +9551,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>191</v>
       </c>
@@ -9501,7 +9562,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>304</v>
       </c>
@@ -9512,7 +9573,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>350</v>
       </c>
@@ -9523,7 +9584,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>402</v>
       </c>
@@ -9534,7 +9595,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="99" spans="2:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" s="8" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="8" t="s">
         <v>403</v>
       </c>
@@ -9546,6 +9607,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E99" xr:uid="{82F333EE-53F3-4E6E-9E60-69C64448E149}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Customer table in model - Execute SQL"/>
+        <filter val="Data Warehouse - Count of loads by type and lane - Execute SQL"/>
+        <filter val="Data warehouse - Execute SQL"/>
+        <filter val="Facilities table in model - Execute SQL"/>
+        <filter val="Pull Customer Fulfillment Policies - Execute SQL"/>
+        <filter val="Pull Replenishment Policies - Execute SQL"/>
+        <filter val="Transportation Policies - Execute the following SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="E14:E37"/>
     <mergeCell ref="E41:E43"/>
@@ -9558,10 +9632,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E2C992-6BA6-4B1E-BE92-1F54094E6342}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9589,7 +9664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9604,10 +9679,12 @@
       <c r="C3" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="50" t="s">
         <v>576</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -9642,7 +9719,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -9651,7 +9728,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>103</v>
       </c>
@@ -9662,7 +9739,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>104</v>
       </c>
@@ -9673,7 +9750,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>105</v>
       </c>
@@ -9684,7 +9761,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>106</v>
       </c>
@@ -9695,7 +9772,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>108</v>
       </c>
@@ -9706,7 +9783,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>107</v>
       </c>
@@ -9717,7 +9794,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>130</v>
       </c>
@@ -9731,7 +9808,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -9740,7 +9817,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>103</v>
       </c>
@@ -9751,7 +9828,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>104</v>
       </c>
@@ -9762,7 +9839,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>105</v>
       </c>
@@ -9773,7 +9850,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>106</v>
       </c>
@@ -9787,7 +9864,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>108</v>
       </c>
@@ -9798,7 +9875,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>107</v>
       </c>
@@ -9809,7 +9886,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>130</v>
       </c>
@@ -9820,7 +9897,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>141</v>
       </c>
@@ -9831,7 +9908,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>110</v>
       </c>
@@ -9842,7 +9919,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>148</v>
       </c>
@@ -9853,7 +9930,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" s="8" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>190</v>
       </c>
@@ -9865,16 +9942,27 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E26" xr:uid="{44E2C992-6BA6-4B1E-BE92-1F54094E6342}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Customer table in model - Execute SQL"/>
+        <filter val="Data Warehouse - Execute SQL"/>
+        <filter val="Facilities table in model - Execute SQL"/>
+        <filter val="Transportation Policies table in model - Execute SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99BC76D-64B5-4D5F-A0C0-BCB3A903459D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9902,7 +9990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9910,7 +9998,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -9918,7 +10006,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>104</v>
       </c>
@@ -9940,7 +10028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -9951,7 +10039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>108</v>
       </c>
@@ -9962,7 +10050,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>107</v>
       </c>
@@ -9973,7 +10061,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>130</v>
       </c>
@@ -9984,7 +10072,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>141</v>
       </c>
@@ -9995,7 +10083,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>110</v>
       </c>
@@ -10009,7 +10097,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>148</v>
       </c>
@@ -10020,7 +10108,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>190</v>
       </c>
@@ -10031,7 +10119,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -10050,7 +10138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>104</v>
       </c>
@@ -10072,7 +10160,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>106</v>
       </c>
@@ -10083,7 +10171,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>108</v>
       </c>
@@ -10094,7 +10182,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>107</v>
       </c>
@@ -10105,7 +10193,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -10116,7 +10204,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>141</v>
       </c>
@@ -10127,7 +10215,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -10138,7 +10226,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>148</v>
       </c>
@@ -10149,7 +10237,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>190</v>
       </c>
@@ -10160,7 +10248,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>191</v>
       </c>
@@ -10171,7 +10259,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>304</v>
       </c>
@@ -10182,7 +10270,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>350</v>
       </c>
@@ -10193,7 +10281,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>402</v>
       </c>
@@ -10204,7 +10292,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>403</v>
       </c>
@@ -10215,7 +10303,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>404</v>
       </c>
@@ -10226,7 +10314,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>405</v>
       </c>
@@ -10237,7 +10325,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>406</v>
       </c>
@@ -10248,7 +10336,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>407</v>
       </c>
@@ -10262,7 +10350,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>613</v>
       </c>
@@ -10273,7 +10361,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>614</v>
       </c>
@@ -10284,7 +10372,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>615</v>
       </c>
@@ -10295,7 +10383,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="8" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>616</v>
       </c>
@@ -10306,7 +10394,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3</v>
       </c>
@@ -10314,7 +10402,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>103</v>
       </c>
@@ -10325,7 +10413,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>104</v>
       </c>
@@ -10336,7 +10424,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>105</v>
       </c>
@@ -10347,7 +10435,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>106</v>
       </c>
@@ -10358,7 +10446,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>108</v>
       </c>
@@ -10369,7 +10457,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>107</v>
       </c>
@@ -10383,7 +10471,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>130</v>
       </c>
@@ -10394,7 +10482,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>141</v>
       </c>
@@ -10405,7 +10493,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>110</v>
       </c>
@@ -10416,7 +10504,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>148</v>
       </c>
@@ -10438,7 +10526,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>191</v>
       </c>
@@ -10449,7 +10537,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>304</v>
       </c>
@@ -10463,7 +10551,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>350</v>
       </c>
@@ -10474,7 +10562,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>402</v>
       </c>
@@ -10488,7 +10576,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
         <v>403</v>
       </c>
@@ -10500,6 +10588,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E55" xr:uid="{B99BC76D-64B5-4D5F-A0C0-BCB3A903459D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Customer fulfilllment policies in table - Execute SQL"/>
+        <filter val="Customer table in model - Execute SQL"/>
+        <filter val="Group table in model - Execute SQL"/>
+        <filter val="Replenishment policies table in model - Execute SQL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Original File Explanation.xlsx
+++ b/docs/Original File Explanation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\soip-workflow-automation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BB24EC-AE01-4442-8874-262BD228BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93534AE1-8642-4B6A-A833-8AE120D9BD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{1C6CA263-56D1-4D08-A1E7-314EDB8B9C74}"/>
   </bookViews>
@@ -3604,7 +3604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3690,6 +3690,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3702,8 +3706,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5095,14 +5101,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.90625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.6328125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="109.6328125" style="52" customWidth="1"/>
     <col min="4" max="4" width="65.6328125" style="33" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="33"/>
   </cols>
@@ -5114,7 +5120,7 @@
       <c r="B1" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="51" t="s">
         <v>738</v>
       </c>
       <c r="D1" s="21" t="s">
@@ -5165,7 +5171,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="22" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="22" customFormat="1" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>442</v>
       </c>
@@ -5219,6 +5225,7 @@
       <c r="B10" s="23" t="s">
         <v>731</v>
       </c>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:4" s="24" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
@@ -5263,6 +5270,7 @@
       <c r="B14" s="24" t="s">
         <v>731</v>
       </c>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:4" s="25" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
@@ -5376,7 +5384,7 @@
       <c r="B24" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="37" t="s">
         <v>768</v>
       </c>
     </row>
@@ -5437,6 +5445,7 @@
       <c r="B29" s="31" t="s">
         <v>731</v>
       </c>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:4" s="32" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
@@ -6992,7 +7001,7 @@
       <c r="C2" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>268</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -7387,7 +7396,7 @@
       <c r="C2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="46" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7550,7 +7559,7 @@
       <c r="D19" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="47" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7558,13 +7567,13 @@
       <c r="D20" t="s">
         <v>326</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>328</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -7576,7 +7585,7 @@
       <c r="D22" t="s">
         <v>330</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -7588,19 +7597,19 @@
       <c r="D23" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>333</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -7612,7 +7621,7 @@
       <c r="D26" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -7785,7 +7794,7 @@
       <c r="D44" t="s">
         <v>354</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="47" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7793,13 +7802,13 @@
       <c r="D45" t="s">
         <v>355</v>
       </c>
-      <c r="E45" s="45"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="45"/>
+      <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
@@ -7811,7 +7820,7 @@
       <c r="D47" t="s">
         <v>356</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
@@ -7823,19 +7832,19 @@
       <c r="D48" t="s">
         <v>357</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
     </row>
     <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>333</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>334</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
     </row>
     <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
@@ -7847,7 +7856,7 @@
       <c r="D51" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="45"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
@@ -8092,7 +8101,7 @@
       <c r="D78" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="48" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8106,7 +8115,7 @@
       <c r="D79" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E79" s="46"/>
+      <c r="E79" s="48"/>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
@@ -8118,7 +8127,7 @@
       <c r="D80" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E80" s="46"/>
+      <c r="E80" s="48"/>
     </row>
     <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
@@ -8130,7 +8139,7 @@
       <c r="D81" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E81" s="46"/>
+      <c r="E81" s="48"/>
     </row>
     <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
@@ -8142,7 +8151,7 @@
       <c r="D82" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E82" s="46"/>
+      <c r="E82" s="48"/>
     </row>
     <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="13" t="s">
@@ -8154,7 +8163,7 @@
       <c r="D83" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="2:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
@@ -8166,7 +8175,7 @@
       <c r="D84" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E84" s="46"/>
+      <c r="E84" s="48"/>
     </row>
     <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
@@ -8178,7 +8187,7 @@
       <c r="D85" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="E85" s="46"/>
+      <c r="E85" s="48"/>
     </row>
     <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="13" t="s">
@@ -8190,7 +8199,7 @@
       <c r="D86" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="E86" s="46"/>
+      <c r="E86" s="48"/>
     </row>
     <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
@@ -8202,7 +8211,7 @@
       <c r="D87" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="E87" s="46"/>
+      <c r="E87" s="48"/>
     </row>
     <row r="88" spans="2:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -8214,7 +8223,7 @@
       <c r="D88" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E88" s="47" t="s">
+      <c r="E88" s="49" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8228,7 +8237,7 @@
       <c r="D89" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="E89" s="47"/>
+      <c r="E89" s="49"/>
     </row>
     <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -8240,7 +8249,7 @@
       <c r="D90" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E90" s="47"/>
+      <c r="E90" s="49"/>
     </row>
     <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -8252,7 +8261,7 @@
       <c r="D91" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="E91" s="47"/>
+      <c r="E91" s="49"/>
     </row>
     <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -8264,7 +8273,7 @@
       <c r="D92" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E92" s="47"/>
+      <c r="E92" s="49"/>
     </row>
     <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -8276,7 +8285,7 @@
       <c r="D93" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="E93" s="47"/>
+      <c r="E93" s="49"/>
     </row>
     <row r="94" spans="2:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -8288,7 +8297,7 @@
       <c r="D94" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E94" s="47"/>
+      <c r="E94" s="49"/>
     </row>
     <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -8300,7 +8309,7 @@
       <c r="D95" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E95" s="47"/>
+      <c r="E95" s="49"/>
     </row>
     <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -8312,7 +8321,7 @@
       <c r="D96" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="47"/>
+      <c r="E96" s="49"/>
     </row>
     <row r="97" spans="2:5" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="17" t="s">
@@ -8324,7 +8333,7 @@
       <c r="D97" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E97" s="47"/>
+      <c r="E97" s="49"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E97" xr:uid="{6A45E050-E71B-4380-9782-9CB2A1906CE4}">
@@ -8586,7 +8595,7 @@
       <c r="C4" t="s">
         <v>451</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="46" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8699,7 +8708,7 @@
       <c r="D14" t="s">
         <v>464</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="47" t="s">
         <v>475</v>
       </c>
     </row>
@@ -8707,13 +8716,13 @@
       <c r="D15" t="s">
         <v>465</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>466</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -8725,19 +8734,19 @@
       <c r="D17" t="s">
         <v>467</v>
       </c>
-      <c r="E17" s="45"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>468</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>469</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="2:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -8749,7 +8758,7 @@
       <c r="D20" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
@@ -8761,7 +8770,7 @@
       <c r="D21" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -8773,19 +8782,19 @@
       <c r="D22" t="s">
         <v>476</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>477</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>478</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
@@ -8797,19 +8806,19 @@
       <c r="D25" t="s">
         <v>479</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>480</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>481</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="2:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -8821,7 +8830,7 @@
       <c r="D28" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="2:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
@@ -8833,7 +8842,7 @@
       <c r="D29" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="47"/>
     </row>
     <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
@@ -8845,19 +8854,19 @@
       <c r="D30" t="s">
         <v>484</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>480</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>481</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="47"/>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -8869,19 +8878,19 @@
       <c r="D33" t="s">
         <v>485</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>480</v>
       </c>
-      <c r="E34" s="45"/>
+      <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>481</v>
       </c>
-      <c r="E35" s="45"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -8893,7 +8902,7 @@
       <c r="D36" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E36" s="45"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
@@ -8905,7 +8914,7 @@
       <c r="D37" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="E37" s="45"/>
+      <c r="E37" s="47"/>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -8923,7 +8932,7 @@
       <c r="C39" t="s">
         <v>491</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="46" t="s">
         <v>492</v>
       </c>
       <c r="E39" s="6"/>
@@ -8950,7 +8959,7 @@
       <c r="D41" t="s">
         <v>496</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="50" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8964,7 +8973,7 @@
       <c r="D42" t="s">
         <v>498</v>
       </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
@@ -8976,7 +8985,7 @@
       <c r="D43" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="E43" s="48"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
@@ -9088,7 +9097,7 @@
       <c r="D53" t="s">
         <v>513</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="47" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9102,7 +9111,7 @@
       <c r="D54" t="s">
         <v>515</v>
       </c>
-      <c r="E54" s="45"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
@@ -9114,7 +9123,7 @@
       <c r="D55" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E55" s="45"/>
+      <c r="E55" s="47"/>
     </row>
     <row r="56" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
@@ -9126,7 +9135,7 @@
       <c r="D56" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E56" s="45"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
@@ -9138,7 +9147,7 @@
       <c r="D57" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E57" s="45"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="58" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
@@ -9150,7 +9159,7 @@
       <c r="D58" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E58" s="45"/>
+      <c r="E58" s="47"/>
     </row>
     <row r="59" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
@@ -9162,7 +9171,7 @@
       <c r="D59" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E59" s="45"/>
+      <c r="E59" s="47"/>
     </row>
     <row r="60" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
@@ -9174,7 +9183,7 @@
       <c r="D60" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E60" s="45"/>
+      <c r="E60" s="47"/>
     </row>
     <row r="61" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
@@ -9186,7 +9195,7 @@
       <c r="D61" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="E61" s="45"/>
+      <c r="E61" s="47"/>
     </row>
     <row r="62" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
@@ -9198,7 +9207,7 @@
       <c r="D62" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E62" s="45"/>
+      <c r="E62" s="47"/>
     </row>
     <row r="63" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
@@ -9210,7 +9219,7 @@
       <c r="D63" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E63" s="45"/>
+      <c r="E63" s="47"/>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
@@ -9222,7 +9231,7 @@
       <c r="D64" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E64" s="45"/>
+      <c r="E64" s="47"/>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -9679,7 +9688,7 @@
       <c r="C3" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="46" t="s">
         <v>576</v>
       </c>
       <c r="E3" s="20" t="s">
